--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>2.403331269010721</v>
       </c>
       <c r="C2">
-        <v>0.7542053255643282</v>
+        <v>0.7542053255642998</v>
       </c>
       <c r="D2">
-        <v>0.02222277400318973</v>
+        <v>0.02222277400307604</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7217679788488383</v>
+        <v>0.7217679788488098</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,10 +453,10 @@
         <v>2.080686039371699</v>
       </c>
       <c r="C3">
-        <v>0.6513893403673308</v>
+        <v>0.6513893403673023</v>
       </c>
       <c r="D3">
-        <v>0.02262821234711865</v>
+        <v>0.02262821234715773</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3552584440868998</v>
+        <v>0.3552584440868927</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6244655199303182</v>
+        <v>0.6244655199303537</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884109593287917</v>
+        <v>1.884109593288201</v>
       </c>
       <c r="C4">
-        <v>0.588952196383417</v>
+        <v>0.5889521963836444</v>
       </c>
       <c r="D4">
-        <v>0.02291847664825042</v>
+        <v>0.02291847664813673</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.3524177172036715</v>
+        <v>0.3524177172036644</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.804317665643651</v>
+        <v>1.804317665643595</v>
       </c>
       <c r="C5">
-        <v>0.5636532817862872</v>
+        <v>0.5636532817861166</v>
       </c>
       <c r="D5">
-        <v>0.02304643445319599</v>
+        <v>0.02304643445329546</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7505399174905278</v>
+        <v>0.7505399174905421</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3516788827161825</v>
+        <v>0.3516788827161506</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5412021487264767</v>
+        <v>0.5412021487265122</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.791085337567978</v>
+        <v>1.79108533756812</v>
       </c>
       <c r="C6">
-        <v>0.559460343810116</v>
+        <v>0.5594603438104571</v>
       </c>
       <c r="D6">
-        <v>0.02306824648857031</v>
+        <v>0.0230682464886165</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7476955722107732</v>
+        <v>0.7476955722107306</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.3515805747457641</v>
+        <v>0.3515805747457499</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5372175061821665</v>
+        <v>0.5372175061821451</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883032306139938</v>
+        <v>1.883032306139739</v>
       </c>
       <c r="C7">
-        <v>0.5886104574677802</v>
+        <v>0.5886104574674107</v>
       </c>
       <c r="D7">
-        <v>0.02292016405781538</v>
+        <v>0.02292016405753827</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7676858665035979</v>
+        <v>0.7676858665036406</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.3524060992074105</v>
+        <v>0.3524060992074247</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.291721892139662</v>
+        <v>2.291721892139833</v>
       </c>
       <c r="C8">
-        <v>0.7185922419932922</v>
+        <v>0.7185922419932638</v>
       </c>
       <c r="D8">
-        <v>0.02235353389936279</v>
+        <v>0.02235353389943384</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.3598133689154892</v>
+        <v>0.359813368915475</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6880974352103877</v>
+        <v>0.6880974352103735</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.108793896880172</v>
+        <v>3.108793896879888</v>
       </c>
       <c r="C9">
-        <v>0.9804466197402633</v>
+        <v>0.9804466197401496</v>
       </c>
       <c r="D9">
         <v>0.02160736932420804</v>
@@ -690,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.076993175702455</v>
+        <v>1.076993175702441</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3902185116706747</v>
+        <v>0.3902185116706818</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9348754842381624</v>
+        <v>0.9348754842381766</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.724083426881577</v>
+        <v>3.724083426881634</v>
       </c>
       <c r="C10">
-        <v>1.179362202002892</v>
+        <v>1.179362202002721</v>
       </c>
       <c r="D10">
-        <v>0.02134163170223857</v>
+        <v>0.02134163170219594</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.257285308477336</v>
+        <v>1.25728530847735</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.121136754428576</v>
+        <v>1.121136754428591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.008636859345813</v>
+        <v>4.008636859345927</v>
       </c>
       <c r="C11">
         <v>1.271856911343605</v>
       </c>
       <c r="D11">
-        <v>0.02129820715037312</v>
+        <v>0.02129820715049746</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.345565243671373</v>
+        <v>1.345565243671388</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.207400678556795</v>
+        <v>1.207400678556809</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.117190233104964</v>
+        <v>4.117190233105077</v>
       </c>
       <c r="C12">
         <v>1.307226463484881</v>
       </c>
       <c r="D12">
-        <v>0.02129451130767279</v>
+        <v>0.02129451130766924</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.4514402348266984</v>
+        <v>0.4514402348266913</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.240329858378317</v>
+        <v>1.240329858378345</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.093773543067414</v>
+        <v>4.093773543067357</v>
       </c>
       <c r="C13">
-        <v>1.29959275265918</v>
+        <v>1.299592752659123</v>
       </c>
       <c r="D13">
-        <v>0.02129471198975708</v>
+        <v>0.02129471198963273</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.372553322672331</v>
+        <v>1.372553322672346</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.233225544832095</v>
+        <v>1.233225544832081</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.017550794855651</v>
+        <v>4.017550794855708</v>
       </c>
       <c r="C14">
-        <v>1.274759554190325</v>
+        <v>1.274759554189984</v>
       </c>
       <c r="D14">
-        <v>0.02129763749330493</v>
+        <v>0.02129763749329783</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.348378664247491</v>
+        <v>1.348378664247505</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.4443441565744592</v>
+        <v>0.4443441565744664</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>1.259595034020265</v>
       </c>
       <c r="D15">
-        <v>0.02130114162134689</v>
+        <v>0.02130114162104491</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.333708762636775</v>
+        <v>1.333708762636803</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.705591607015378</v>
+        <v>3.705591607015208</v>
       </c>
       <c r="C16">
-        <v>1.173362406929016</v>
+        <v>1.173362406928959</v>
       </c>
       <c r="D16">
-        <v>0.02134616036440207</v>
+        <v>0.02134616036428483</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.251652519448086</v>
+        <v>1.251652519448072</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.4235680454097874</v>
+        <v>0.4235680454098087</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.115533564000884</v>
+        <v>1.11553356400087</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.544070199427892</v>
+        <v>3.544070199428063</v>
       </c>
       <c r="C17">
-        <v>1.121012714606195</v>
+        <v>1.12101271460682</v>
       </c>
       <c r="D17">
-        <v>0.0213946875745421</v>
+        <v>0.02139468757437868</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.413692007620071</v>
+        <v>0.4136920076200639</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.066605124114105</v>
+        <v>1.066605124114147</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.451596893866054</v>
+        <v>3.451596893865997</v>
       </c>
       <c r="C18">
         <v>1.09108778411337</v>
       </c>
       <c r="D18">
-        <v>0.02142978034606458</v>
+        <v>0.02142978034598997</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.175602847517752</v>
+        <v>1.175602847517737</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.4083162461519763</v>
+        <v>0.4083162461519834</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.420357088277285</v>
+        <v>3.420357088277058</v>
       </c>
       <c r="C19">
-        <v>1.080985956528053</v>
+        <v>1.080985956527883</v>
       </c>
       <c r="D19">
-        <v>0.02144285039550553</v>
+        <v>0.02144285039576843</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.4065467097369719</v>
+        <v>0.4065467097369577</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.561219082605078</v>
+        <v>3.561219082605248</v>
       </c>
       <c r="C20">
-        <v>1.126565879949737</v>
+        <v>1.126565879949965</v>
       </c>
       <c r="D20">
-        <v>0.0213887676569442</v>
+        <v>0.02138876765684117</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.4147113816264678</v>
+        <v>0.4147113816265033</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.071798709835974</v>
+        <v>1.071798709835988</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.039916462102781</v>
+        <v>4.039916462102724</v>
       </c>
       <c r="C21">
-        <v>1.282043861071429</v>
+        <v>1.282043861071372</v>
       </c>
       <c r="D21">
-        <v>0.02129641815700367</v>
+        <v>0.02129641815688288</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.355450387797632</v>
+        <v>1.355450387797674</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.4459178678627254</v>
+        <v>0.4459178678627467</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.216888035727791</v>
+        <v>1.216888035727806</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.357503025110077</v>
+        <v>4.35750302511002</v>
       </c>
       <c r="C22">
-        <v>1.385692541558967</v>
+        <v>1.385692541558797</v>
       </c>
       <c r="D22">
-        <v>0.02131130263953196</v>
+        <v>0.02131130263954262</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.457795693778749</v>
+        <v>1.457795693778763</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.469447252238929</v>
+        <v>0.4694472522389077</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.313268328611471</v>
+        <v>1.313268328611457</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.187521187757511</v>
+        <v>4.187521187757397</v>
       </c>
       <c r="C23">
         <v>1.330166996724586</v>
       </c>
       <c r="D23">
-        <v>0.02129587511558739</v>
+        <v>0.02129587511575437</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.402571974433883</v>
+        <v>1.40257197443384</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.4565804852863806</v>
+        <v>0.4565804852863522</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.26167053439633</v>
+        <v>1.261670534396345</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.553464875140719</v>
+        <v>3.553464875140776</v>
       </c>
       <c r="C24">
-        <v>1.124054763470212</v>
+        <v>1.124054763469985</v>
       </c>
       <c r="D24">
-        <v>0.02139142176292452</v>
+        <v>0.02139142176297426</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.069450291980047</v>
+        <v>1.069450291980033</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>2.885551939914478</v>
       </c>
       <c r="C25">
-        <v>0.9086416207854597</v>
+        <v>0.9086416207850903</v>
       </c>
       <c r="D25">
-        <v>0.02176448238363093</v>
+        <v>0.02176448238362738</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.015391156650935</v>
+        <v>1.015391156650921</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8673857682846915</v>
+        <v>0.8673857682847057</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>2.403331269010721</v>
       </c>
       <c r="C2">
-        <v>0.7542053255642998</v>
+        <v>0.7542053255643282</v>
       </c>
       <c r="D2">
-        <v>0.02222277400307604</v>
+        <v>0.02222277400318973</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7217679788488098</v>
+        <v>0.7217679788488383</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,10 +453,10 @@
         <v>2.080686039371699</v>
       </c>
       <c r="C3">
-        <v>0.6513893403673023</v>
+        <v>0.6513893403673308</v>
       </c>
       <c r="D3">
-        <v>0.02262821234715773</v>
+        <v>0.02262821234711865</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3552584440868927</v>
+        <v>0.3552584440868998</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6244655199303537</v>
+        <v>0.6244655199303182</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884109593288201</v>
+        <v>1.884109593287917</v>
       </c>
       <c r="C4">
-        <v>0.5889521963836444</v>
+        <v>0.588952196383417</v>
       </c>
       <c r="D4">
-        <v>0.02291847664813673</v>
+        <v>0.02291847664825042</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.3524177172036644</v>
+        <v>0.3524177172036715</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.804317665643595</v>
+        <v>1.804317665643651</v>
       </c>
       <c r="C5">
-        <v>0.5636532817861166</v>
+        <v>0.5636532817862872</v>
       </c>
       <c r="D5">
-        <v>0.02304643445329546</v>
+        <v>0.02304643445319599</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7505399174905421</v>
+        <v>0.7505399174905278</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3516788827161506</v>
+        <v>0.3516788827161825</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5412021487265122</v>
+        <v>0.5412021487264767</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.79108533756812</v>
+        <v>1.791085337567978</v>
       </c>
       <c r="C6">
-        <v>0.5594603438104571</v>
+        <v>0.559460343810116</v>
       </c>
       <c r="D6">
-        <v>0.0230682464886165</v>
+        <v>0.02306824648857031</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7476955722107306</v>
+        <v>0.7476955722107732</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.3515805747457499</v>
+        <v>0.3515805747457641</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5372175061821451</v>
+        <v>0.5372175061821665</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883032306139739</v>
+        <v>1.883032306139938</v>
       </c>
       <c r="C7">
-        <v>0.5886104574674107</v>
+        <v>0.5886104574677802</v>
       </c>
       <c r="D7">
-        <v>0.02292016405753827</v>
+        <v>0.02292016405781538</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7676858665036406</v>
+        <v>0.7676858665035979</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.3524060992074247</v>
+        <v>0.3524060992074105</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.291721892139833</v>
+        <v>2.291721892139662</v>
       </c>
       <c r="C8">
-        <v>0.7185922419932638</v>
+        <v>0.7185922419932922</v>
       </c>
       <c r="D8">
-        <v>0.02235353389943384</v>
+        <v>0.02235353389936279</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.359813368915475</v>
+        <v>0.3598133689154892</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6880974352103735</v>
+        <v>0.6880974352103877</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.108793896879888</v>
+        <v>3.108793896880172</v>
       </c>
       <c r="C9">
-        <v>0.9804466197401496</v>
+        <v>0.9804466197402633</v>
       </c>
       <c r="D9">
         <v>0.02160736932420804</v>
@@ -690,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.076993175702441</v>
+        <v>1.076993175702455</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3902185116706818</v>
+        <v>0.3902185116706747</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9348754842381766</v>
+        <v>0.9348754842381624</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.724083426881634</v>
+        <v>3.724083426881577</v>
       </c>
       <c r="C10">
-        <v>1.179362202002721</v>
+        <v>1.179362202002892</v>
       </c>
       <c r="D10">
-        <v>0.02134163170219594</v>
+        <v>0.02134163170223857</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.25728530847735</v>
+        <v>1.257285308477336</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.121136754428591</v>
+        <v>1.121136754428576</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.008636859345927</v>
+        <v>4.008636859345813</v>
       </c>
       <c r="C11">
         <v>1.271856911343605</v>
       </c>
       <c r="D11">
-        <v>0.02129820715049746</v>
+        <v>0.02129820715037312</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.345565243671388</v>
+        <v>1.345565243671373</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.207400678556809</v>
+        <v>1.207400678556795</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.117190233105077</v>
+        <v>4.117190233104964</v>
       </c>
       <c r="C12">
         <v>1.307226463484881</v>
       </c>
       <c r="D12">
-        <v>0.02129451130766924</v>
+        <v>0.02129451130767279</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.4514402348266913</v>
+        <v>0.4514402348266984</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.240329858378345</v>
+        <v>1.240329858378317</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.093773543067357</v>
+        <v>4.093773543067414</v>
       </c>
       <c r="C13">
-        <v>1.299592752659123</v>
+        <v>1.29959275265918</v>
       </c>
       <c r="D13">
-        <v>0.02129471198963273</v>
+        <v>0.02129471198975708</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.372553322672346</v>
+        <v>1.372553322672331</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.233225544832081</v>
+        <v>1.233225544832095</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.017550794855708</v>
+        <v>4.017550794855651</v>
       </c>
       <c r="C14">
-        <v>1.274759554189984</v>
+        <v>1.274759554190325</v>
       </c>
       <c r="D14">
-        <v>0.02129763749329783</v>
+        <v>0.02129763749330493</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.348378664247505</v>
+        <v>1.348378664247491</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.4443441565744664</v>
+        <v>0.4443441565744592</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>1.259595034020265</v>
       </c>
       <c r="D15">
-        <v>0.02130114162104491</v>
+        <v>0.02130114162134689</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.333708762636803</v>
+        <v>1.333708762636775</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.705591607015208</v>
+        <v>3.705591607015378</v>
       </c>
       <c r="C16">
-        <v>1.173362406928959</v>
+        <v>1.173362406929016</v>
       </c>
       <c r="D16">
-        <v>0.02134616036428483</v>
+        <v>0.02134616036440207</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.251652519448072</v>
+        <v>1.251652519448086</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.4235680454098087</v>
+        <v>0.4235680454097874</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.11553356400087</v>
+        <v>1.115533564000884</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.544070199428063</v>
+        <v>3.544070199427892</v>
       </c>
       <c r="C17">
-        <v>1.12101271460682</v>
+        <v>1.121012714606195</v>
       </c>
       <c r="D17">
-        <v>0.02139468757437868</v>
+        <v>0.0213946875745421</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.4136920076200639</v>
+        <v>0.413692007620071</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.066605124114147</v>
+        <v>1.066605124114105</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.451596893865997</v>
+        <v>3.451596893866054</v>
       </c>
       <c r="C18">
         <v>1.09108778411337</v>
       </c>
       <c r="D18">
-        <v>0.02142978034598997</v>
+        <v>0.02142978034606458</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.175602847517737</v>
+        <v>1.175602847517752</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.4083162461519834</v>
+        <v>0.4083162461519763</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.420357088277058</v>
+        <v>3.420357088277285</v>
       </c>
       <c r="C19">
-        <v>1.080985956527883</v>
+        <v>1.080985956528053</v>
       </c>
       <c r="D19">
-        <v>0.02144285039576843</v>
+        <v>0.02144285039550553</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.4065467097369577</v>
+        <v>0.4065467097369719</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.561219082605248</v>
+        <v>3.561219082605078</v>
       </c>
       <c r="C20">
-        <v>1.126565879949965</v>
+        <v>1.126565879949737</v>
       </c>
       <c r="D20">
-        <v>0.02138876765684117</v>
+        <v>0.0213887676569442</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.4147113816265033</v>
+        <v>0.4147113816264678</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.071798709835988</v>
+        <v>1.071798709835974</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.039916462102724</v>
+        <v>4.039916462102781</v>
       </c>
       <c r="C21">
-        <v>1.282043861071372</v>
+        <v>1.282043861071429</v>
       </c>
       <c r="D21">
-        <v>0.02129641815688288</v>
+        <v>0.02129641815700367</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.355450387797674</v>
+        <v>1.355450387797632</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.4459178678627467</v>
+        <v>0.4459178678627254</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.216888035727806</v>
+        <v>1.216888035727791</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.35750302511002</v>
+        <v>4.357503025110077</v>
       </c>
       <c r="C22">
-        <v>1.385692541558797</v>
+        <v>1.385692541558967</v>
       </c>
       <c r="D22">
-        <v>0.02131130263954262</v>
+        <v>0.02131130263953196</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.457795693778763</v>
+        <v>1.457795693778749</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.4694472522389077</v>
+        <v>0.469447252238929</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.313268328611457</v>
+        <v>1.313268328611471</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.187521187757397</v>
+        <v>4.187521187757511</v>
       </c>
       <c r="C23">
         <v>1.330166996724586</v>
       </c>
       <c r="D23">
-        <v>0.02129587511575437</v>
+        <v>0.02129587511558739</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.40257197443384</v>
+        <v>1.402571974433883</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.4565804852863522</v>
+        <v>0.4565804852863806</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.261670534396345</v>
+        <v>1.26167053439633</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.553464875140776</v>
+        <v>3.553464875140719</v>
       </c>
       <c r="C24">
-        <v>1.124054763469985</v>
+        <v>1.124054763470212</v>
       </c>
       <c r="D24">
-        <v>0.02139142176297426</v>
+        <v>0.02139142176292452</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.069450291980033</v>
+        <v>1.069450291980047</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>2.885551939914478</v>
       </c>
       <c r="C25">
-        <v>0.9086416207850903</v>
+        <v>0.9086416207854597</v>
       </c>
       <c r="D25">
-        <v>0.02176448238362738</v>
+        <v>0.02176448238363093</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.015391156650921</v>
+        <v>1.015391156650935</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8673857682847057</v>
+        <v>0.8673857682846915</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.403331269010721</v>
+        <v>2.387229978439109</v>
       </c>
       <c r="C2">
-        <v>0.7542053255643282</v>
+        <v>0.7452943989612208</v>
       </c>
       <c r="D2">
-        <v>0.02222277400318973</v>
+        <v>0.02427621019698023</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8899312518222331</v>
+        <v>0.9027713996460136</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007885635778289929</v>
       </c>
       <c r="H2">
-        <v>0.3628109901518712</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3749567536038256</v>
       </c>
       <c r="J2">
-        <v>0.7217679788488383</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.716043447590252</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.080686039371699</v>
+        <v>2.06670264034301</v>
       </c>
       <c r="C3">
-        <v>0.6513893403673308</v>
+        <v>0.6435608882446218</v>
       </c>
       <c r="D3">
-        <v>0.02262821234711865</v>
+        <v>0.02480611478636519</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8123704921750488</v>
+        <v>0.8277163650808177</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007956003986289911</v>
       </c>
       <c r="H3">
-        <v>0.3552584440868998</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3687287184040713</v>
       </c>
       <c r="J3">
-        <v>0.6244655199303182</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.619476462657083</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884109593287917</v>
+        <v>1.871430928237032</v>
       </c>
       <c r="C4">
-        <v>0.588952196383417</v>
+        <v>0.5817918718211388</v>
       </c>
       <c r="D4">
-        <v>0.02291847664825042</v>
+        <v>0.02517371107554567</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7679231688153862</v>
+        <v>0.7848201556308396</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008000364734312157</v>
       </c>
       <c r="H4">
-        <v>0.3524177172036715</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3667097139090565</v>
       </c>
       <c r="J4">
-        <v>0.5652336396162312</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5606980692372048</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.804317665643651</v>
+        <v>1.792172630303185</v>
       </c>
       <c r="C5">
-        <v>0.5636532817862872</v>
+        <v>0.5567665424408972</v>
       </c>
       <c r="D5">
-        <v>0.02304643445319599</v>
+        <v>0.02533344074168653</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7505399174905278</v>
+        <v>0.7680731809147829</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008018744215292792</v>
       </c>
       <c r="H5">
-        <v>0.3516788827161825</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3663083790779211</v>
       </c>
       <c r="J5">
-        <v>0.5412021487264767</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5368521531967332</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.791085337567978</v>
+        <v>1.779029051362585</v>
       </c>
       <c r="C6">
-        <v>0.559460343810116</v>
+        <v>0.5526191247522547</v>
       </c>
       <c r="D6">
-        <v>0.02306824648857031</v>
+        <v>0.02536054489631923</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7476955722107732</v>
+        <v>0.7653347696157766</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008021814691940177</v>
       </c>
       <c r="H6">
-        <v>0.3515805747457641</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3662662862377637</v>
       </c>
       <c r="J6">
-        <v>0.5372175061821665</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5328983801415959</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883032306139938</v>
+        <v>1.870360828892359</v>
       </c>
       <c r="C7">
-        <v>0.5886104574677802</v>
+        <v>0.5814538166828243</v>
       </c>
       <c r="D7">
-        <v>0.02292016405781538</v>
+        <v>0.02517582588779632</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7676858665035979</v>
+        <v>0.7845914161456164</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008000611368072443</v>
       </c>
       <c r="H7">
-        <v>0.3524060992074105</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3667026362158019</v>
       </c>
       <c r="J7">
-        <v>0.5649091422588555</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5603760710978989</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.291721892139662</v>
+        <v>2.276350489649644</v>
       </c>
       <c r="C8">
-        <v>0.7185922419932922</v>
+        <v>0.7100541101027318</v>
       </c>
       <c r="D8">
-        <v>0.02235353389936279</v>
+        <v>0.02444971627773285</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8624860502738301</v>
+        <v>0.8761882053317009</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007909666544858029</v>
       </c>
       <c r="H8">
-        <v>0.3598133689154892</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3724143904476165</v>
       </c>
       <c r="J8">
-        <v>0.6880974352103877</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6826262890904147</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.108793896880172</v>
+        <v>3.08811871414207</v>
       </c>
       <c r="C9">
-        <v>0.9804466197402633</v>
+        <v>0.9692043795157304</v>
       </c>
       <c r="D9">
-        <v>0.02160736932420804</v>
+        <v>0.0233964988785651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.076993175702455</v>
+        <v>1.084461405813855</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007739899179040502</v>
       </c>
       <c r="H9">
-        <v>0.3902185116706747</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3995357673297022</v>
       </c>
       <c r="J9">
-        <v>0.9348754842381624</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9275646259468999</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.724083426881577</v>
+        <v>3.699435336547197</v>
       </c>
       <c r="C10">
-        <v>1.179362202002892</v>
+        <v>1.166099797128311</v>
       </c>
       <c r="D10">
-        <v>0.02134163170223857</v>
+        <v>0.02290618114655985</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.257285308477336</v>
+        <v>1.260119473347714</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007619499651788315</v>
       </c>
       <c r="H10">
-        <v>0.4247376031070402</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4316257076783216</v>
       </c>
       <c r="J10">
-        <v>1.121136754428576</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.112449550955532</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.008636859345813</v>
+        <v>3.982145798634519</v>
       </c>
       <c r="C11">
-        <v>1.271856911343605</v>
+        <v>1.257658399834838</v>
       </c>
       <c r="D11">
-        <v>0.02129820715037312</v>
+        <v>0.02276015477405835</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.345565243671373</v>
+        <v>1.34625730271371</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007565440670455413</v>
       </c>
       <c r="H11">
-        <v>0.4437200449136398</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4494883718076323</v>
       </c>
       <c r="J11">
-        <v>1.207400678556795</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.1980753421646</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.117190233104964</v>
+        <v>4.089994251118981</v>
       </c>
       <c r="C12">
-        <v>1.307226463484881</v>
+        <v>1.292670029074543</v>
       </c>
       <c r="D12">
-        <v>0.02129451130767279</v>
+        <v>0.02271747850773664</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.380022077973862</v>
+        <v>1.379895871171314</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000754505103474297</v>
       </c>
       <c r="H12">
-        <v>0.4514402348266984</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4567813093743851</v>
       </c>
       <c r="J12">
-        <v>1.240329858378317</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.230760484611622</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.093773543067414</v>
+        <v>4.066729724710171</v>
       </c>
       <c r="C13">
-        <v>1.29959275265918</v>
+        <v>1.285113573629701</v>
       </c>
       <c r="D13">
-        <v>0.02129471198975708</v>
+        <v>0.02272608111606189</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.372553322672331</v>
+        <v>1.372603698564035</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007549439050704271</v>
       </c>
       <c r="H13">
-        <v>0.4497528550082279</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.455186108411084</v>
       </c>
       <c r="J13">
-        <v>1.233225544832095</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.223708846893359</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.017550794855651</v>
+        <v>3.991001892705413</v>
       </c>
       <c r="C14">
-        <v>1.274759554190325</v>
+        <v>1.260531671257411</v>
       </c>
       <c r="D14">
-        <v>0.02129763749330493</v>
+        <v>0.022756381129863</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.348378664247491</v>
+        <v>1.349003560169578</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007563761701976066</v>
       </c>
       <c r="H14">
-        <v>0.4443441565744592</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4500774045364437</v>
       </c>
       <c r="J14">
-        <v>1.210104251004253</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.200758889591484</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.970970354223994</v>
+        <v>3.944723625545691</v>
       </c>
       <c r="C15">
-        <v>1.259595034020265</v>
+        <v>1.245520597520795</v>
       </c>
       <c r="D15">
-        <v>0.02130114162134689</v>
+        <v>0.02277663427517496</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.333708762636775</v>
+        <v>1.334684573111701</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007572544666774911</v>
       </c>
       <c r="H15">
-        <v>0.4411023644132328</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4470189132642872</v>
       </c>
       <c r="J15">
-        <v>1.195977378572053</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.18673663297136</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.705591607015378</v>
+        <v>3.681063085924848</v>
       </c>
       <c r="C16">
-        <v>1.173362406929016</v>
+        <v>1.1601607542637</v>
       </c>
       <c r="D16">
-        <v>0.02134616036440207</v>
+        <v>0.02291740097779993</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.251652519448086</v>
+        <v>1.254625810524999</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007623045109886872</v>
       </c>
       <c r="H16">
-        <v>0.4235680454097874</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4305289435000859</v>
       </c>
       <c r="J16">
-        <v>1.115533564000884</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.106887767926267</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.544070199427892</v>
+        <v>3.520585349258624</v>
       </c>
       <c r="C17">
-        <v>1.121012714606195</v>
+        <v>1.108341453565231</v>
       </c>
       <c r="D17">
-        <v>0.0213946875745421</v>
+        <v>0.02302451133067507</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.203003349376303</v>
+        <v>1.207191849719777</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007654193516591132</v>
       </c>
       <c r="H17">
-        <v>0.413692007620071</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4212890756817771</v>
       </c>
       <c r="J17">
-        <v>1.066605124114105</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.058320792458019</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.451596893866054</v>
+        <v>3.428709108008775</v>
       </c>
       <c r="C18">
-        <v>1.09108778411337</v>
+        <v>1.078720045555741</v>
       </c>
       <c r="D18">
-        <v>0.02142978034606458</v>
+        <v>0.02309326261620726</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.175602847517752</v>
+        <v>1.180487249942402</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007672177600767793</v>
       </c>
       <c r="H18">
-        <v>0.4083162461519763</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4162779093957525</v>
       </c>
       <c r="J18">
-        <v>1.038604220139206</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.030526706593335</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.420357088277285</v>
+        <v>3.397670956742047</v>
       </c>
       <c r="C19">
-        <v>1.080985956528053</v>
+        <v>1.068720747430262</v>
       </c>
       <c r="D19">
-        <v>0.02144285039550553</v>
+        <v>0.02311772431045966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.16642172270474</v>
+        <v>1.171541282627757</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007678279042093515</v>
       </c>
       <c r="H19">
-        <v>0.4065467097369719</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4146316238382255</v>
       </c>
       <c r="J19">
-        <v>1.029146674593406</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.021139017907728</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.561219082605078</v>
+        <v>3.537623478707701</v>
       </c>
       <c r="C20">
-        <v>1.126565879949737</v>
+        <v>1.113838324272535</v>
       </c>
       <c r="D20">
-        <v>0.0213887676569442</v>
+        <v>0.02301235939661694</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.208121115387073</v>
+        <v>1.212180585573677</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007650870786560148</v>
       </c>
       <c r="H20">
-        <v>0.4147113816264678</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4222408715989232</v>
       </c>
       <c r="J20">
-        <v>1.071798709835974</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.06347601659067</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.039916462102781</v>
+        <v>4.013222398512596</v>
       </c>
       <c r="C21">
-        <v>1.282043861071429</v>
+        <v>1.267742268325492</v>
       </c>
       <c r="D21">
-        <v>0.02129641815700367</v>
+        <v>0.02274712525417755</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.355450387797632</v>
+        <v>1.355906745171353</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007559552764256905</v>
       </c>
       <c r="H21">
-        <v>0.4459178678627254</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4515630970647067</v>
       </c>
       <c r="J21">
-        <v>1.216888035727791</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.207492419307513</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.357503025110077</v>
+        <v>4.328741851492566</v>
       </c>
       <c r="C22">
-        <v>1.385692541558967</v>
+        <v>1.370341599616893</v>
       </c>
       <c r="D22">
-        <v>0.02131130263953196</v>
+        <v>0.02264823992117471</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.457795693778749</v>
+        <v>1.455854552021592</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007500333625725109</v>
       </c>
       <c r="H22">
-        <v>0.469447252238929</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4738416160742602</v>
       </c>
       <c r="J22">
-        <v>1.313268328611471</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.303157172528117</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.187521187757511</v>
+        <v>4.159867833425722</v>
       </c>
       <c r="C23">
-        <v>1.330166996724586</v>
+        <v>1.315378366028654</v>
       </c>
       <c r="D23">
-        <v>0.02129587511558739</v>
+        <v>0.02269362878184467</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.402571974433883</v>
+        <v>1.401915149473865</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.00075319052650368</v>
       </c>
       <c r="H23">
-        <v>0.4565804852863806</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4616446436246804</v>
       </c>
       <c r="J23">
-        <v>1.26167053439633</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.251942833843287</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.553464875140719</v>
+        <v>3.529919352071943</v>
       </c>
       <c r="C24">
-        <v>1.124054763470212</v>
+        <v>1.11135266290745</v>
       </c>
       <c r="D24">
-        <v>0.02139142176292452</v>
+        <v>0.02301783106020139</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.2058056118114</v>
+        <v>1.209923424898321</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007652372752667037</v>
       </c>
       <c r="H24">
-        <v>0.4142495861207394</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4218096316406985</v>
       </c>
       <c r="J24">
-        <v>1.069450291980047</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.061144945052504</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.885551939914478</v>
+        <v>2.866319239436336</v>
       </c>
       <c r="C25">
-        <v>0.9086416207854597</v>
+        <v>0.8981338380906436</v>
       </c>
       <c r="D25">
-        <v>0.02176448238363093</v>
+        <v>0.0236363026418438</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.015391156650935</v>
+        <v>1.024548608390575</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007784995272760671</v>
       </c>
       <c r="H25">
-        <v>0.380050631535596</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3902557916047513</v>
       </c>
       <c r="J25">
-        <v>0.8673857682846915</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8605749479290097</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.387229978439109</v>
+        <v>1.322585557768377</v>
       </c>
       <c r="C2">
-        <v>0.7452943989612208</v>
+        <v>0.2493817244251773</v>
       </c>
       <c r="D2">
-        <v>0.02427621019698023</v>
+        <v>0.3508937255868005</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9027713996460136</v>
+        <v>6.580367957903945</v>
       </c>
       <c r="G2">
-        <v>0.0007885635778289929</v>
+        <v>0.0007812843266747469</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3749567536038256</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.716043447590252</v>
+        <v>0.3409940583706614</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.787086449427647</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.06670264034301</v>
+        <v>1.130210182182992</v>
       </c>
       <c r="C3">
-        <v>0.6435608882446218</v>
+        <v>0.2132047691001446</v>
       </c>
       <c r="D3">
-        <v>0.02480611478636519</v>
+        <v>0.3103549717448573</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8277163650808177</v>
+        <v>5.760982895608635</v>
       </c>
       <c r="G3">
-        <v>0.0007956003986289911</v>
+        <v>0.000791899176813599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3687287184040713</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.619476462657083</v>
+        <v>0.2908464248382003</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.3599765227614</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.871430928237032</v>
+        <v>1.01524796086369</v>
       </c>
       <c r="C4">
-        <v>0.5817918718211388</v>
+        <v>0.1916248576182795</v>
       </c>
       <c r="D4">
-        <v>0.02517371107554567</v>
+        <v>0.286080504397745</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7848201556308396</v>
+        <v>5.270237788163939</v>
       </c>
       <c r="G4">
-        <v>0.0008000364734312157</v>
+        <v>0.0007985133180078926</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3667097139090565</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5606980692372048</v>
+        <v>0.2608904066637336</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.109175453727687</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792172630303185</v>
+        <v>0.9690765124902612</v>
       </c>
       <c r="C5">
-        <v>0.5567665424408972</v>
+        <v>0.182962621251562</v>
       </c>
       <c r="D5">
-        <v>0.02533344074168653</v>
+        <v>0.2763155611293655</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7680731809147829</v>
+        <v>5.072860326765493</v>
       </c>
       <c r="G5">
-        <v>0.0008018744215292792</v>
+        <v>0.000801237171476028</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3663083790779211</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5368521531967332</v>
+        <v>0.2488608874229286</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.009319346152708</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.779029051362585</v>
+        <v>0.9614474653827756</v>
       </c>
       <c r="C6">
-        <v>0.5526191247522547</v>
+        <v>0.1815314799752485</v>
       </c>
       <c r="D6">
-        <v>0.02536054489631923</v>
+        <v>0.2747010255034326</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7653347696157766</v>
+        <v>5.040229754332813</v>
       </c>
       <c r="G6">
-        <v>0.0008021814691940177</v>
+        <v>0.0008016913027363284</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3662662862377637</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5328983801415959</v>
+        <v>0.2468732634865347</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.992866274677169</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.870360828892359</v>
+        <v>1.01462268240158</v>
       </c>
       <c r="C7">
-        <v>0.5814538166828243</v>
+        <v>0.1915075361080341</v>
       </c>
       <c r="D7">
-        <v>0.02517582588779632</v>
+        <v>0.2859483307079387</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7845914161456164</v>
+        <v>5.267565958333307</v>
       </c>
       <c r="G7">
-        <v>0.0008000611368072443</v>
+        <v>0.0007985499321528384</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3667026362158019</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5603760710978989</v>
+        <v>0.2607274922483569</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.107819890488557</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.276350489649644</v>
+        <v>1.255524252556455</v>
       </c>
       <c r="C8">
-        <v>0.7100541101027318</v>
+        <v>0.236759012611941</v>
       </c>
       <c r="D8">
-        <v>0.02444971627773285</v>
+        <v>0.3367700261619859</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8761882053317009</v>
+        <v>6.294954856703299</v>
       </c>
       <c r="G8">
-        <v>0.0007909666544858029</v>
+        <v>0.0007849270293545096</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3724143904476165</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6826262890904147</v>
+        <v>0.3235093286142146</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.63709254596921</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.08811871414207</v>
+        <v>1.759121070453034</v>
       </c>
       <c r="C9">
-        <v>0.9692043795157304</v>
+        <v>0.3319550106117219</v>
       </c>
       <c r="D9">
-        <v>0.0233964988785651</v>
+        <v>0.442813987760843</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.084461405813855</v>
+        <v>8.434529383447284</v>
       </c>
       <c r="G9">
-        <v>0.0007739899179040502</v>
+        <v>0.0007587495694038226</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3995357673297022</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9275646259468999</v>
+        <v>0.4549304244792438</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.796206191696754</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.699435336547197</v>
+        <v>2.158337297415585</v>
       </c>
       <c r="C10">
-        <v>1.166099797128311</v>
+        <v>0.4082222247417633</v>
       </c>
       <c r="D10">
-        <v>0.02290618114655985</v>
+        <v>0.5271793872523745</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.260119473347714</v>
+        <v>10.12843847092427</v>
       </c>
       <c r="G10">
-        <v>0.0007619499651788315</v>
+        <v>0.0007394442220086334</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4316257076783216</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.112449550955532</v>
+        <v>0.5593454307224235</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.779057137523225</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.982145798634519</v>
+        <v>2.349189824922803</v>
       </c>
       <c r="C11">
-        <v>1.257658399834838</v>
+        <v>0.4449680911250198</v>
       </c>
       <c r="D11">
-        <v>0.02276015477405835</v>
+        <v>0.5677314967469442</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.34625730271371</v>
+        <v>10.93918363056406</v>
       </c>
       <c r="G11">
-        <v>0.0007565440670455413</v>
+        <v>0.000730522846102697</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4494883718076323</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.1980753421646</v>
+        <v>0.6093447462661459</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.274321981086118</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.089994251118981</v>
+        <v>2.42309657372121</v>
       </c>
       <c r="C12">
-        <v>1.292670029074543</v>
+        <v>0.4592489768166388</v>
       </c>
       <c r="D12">
-        <v>0.02271747850773664</v>
+        <v>0.5834872848446935</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.379895871171314</v>
+        <v>11.25350027794269</v>
       </c>
       <c r="G12">
-        <v>0.000754505103474297</v>
+        <v>0.0007271102710561745</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4567813093743851</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.230760484611622</v>
+        <v>0.6287213200233879</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.471290099746327</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.066729724710171</v>
+        <v>2.407101109769229</v>
       </c>
       <c r="C13">
-        <v>1.285113573629701</v>
+        <v>0.4561557581578199</v>
       </c>
       <c r="D13">
-        <v>0.02272608111606189</v>
+        <v>0.5800745533085205</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.372603698564035</v>
+        <v>11.18545251464195</v>
       </c>
       <c r="G13">
-        <v>0.0007549439050704271</v>
+        <v>0.0007278470301639359</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.455186108411084</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.223708846893359</v>
+        <v>0.6245270023460634</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.4283992740163</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.991001892705413</v>
+        <v>2.355235415599424</v>
       </c>
       <c r="C14">
-        <v>1.260531671257411</v>
+        <v>0.4461351914644638</v>
       </c>
       <c r="D14">
-        <v>0.022756381129863</v>
+        <v>0.5690191354066201</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.349003560169578</v>
+        <v>10.96488591331359</v>
       </c>
       <c r="G14">
-        <v>0.0007563761701976066</v>
+        <v>0.0007302428759861404</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4500774045364437</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.200758889591484</v>
+        <v>0.6109294486897952</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.290319811923567</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.944723625545691</v>
+        <v>2.323689328998199</v>
       </c>
       <c r="C15">
-        <v>1.245520597520795</v>
+        <v>0.4400473370023121</v>
       </c>
       <c r="D15">
-        <v>0.02277663427517496</v>
+        <v>0.5623024295288701</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.334684573111701</v>
+        <v>10.83078662203144</v>
       </c>
       <c r="G15">
-        <v>0.0007572544666774911</v>
+        <v>0.000731705441227348</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4470189132642872</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.18673663297136</v>
+        <v>0.6026610206234935</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.207060715096247</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.681063085924848</v>
+        <v>2.146075329271952</v>
       </c>
       <c r="C16">
-        <v>1.1601607542637</v>
+        <v>0.4058678178362527</v>
       </c>
       <c r="D16">
-        <v>0.02291740097779993</v>
+        <v>0.5245798390654954</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.254625810524999</v>
+        <v>10.07638401213569</v>
       </c>
       <c r="G16">
-        <v>0.0007623045109886872</v>
+        <v>0.0007400233347800867</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4305289435000859</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.106887767926267</v>
+        <v>0.5561348997450466</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.74785122835236</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.520585349258624</v>
+        <v>2.039680678875442</v>
       </c>
       <c r="C17">
-        <v>1.108341453565231</v>
+        <v>0.385471315600924</v>
       </c>
       <c r="D17">
-        <v>0.02302451133067507</v>
+        <v>0.502049610831989</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.207191849719777</v>
+        <v>9.62483495946887</v>
       </c>
       <c r="G17">
-        <v>0.0007654193516591132</v>
+        <v>0.0007450815971717363</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4212890756817771</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.058320792458019</v>
+        <v>0.5282870089786513</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.479967718632864</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.428709108008775</v>
+        <v>1.979334055810313</v>
       </c>
       <c r="C18">
-        <v>1.078720045555741</v>
+        <v>0.3739278761216269</v>
       </c>
       <c r="D18">
-        <v>0.02309326261620726</v>
+        <v>0.4892890661026001</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.180487249942402</v>
+        <v>9.368786218269889</v>
       </c>
       <c r="G18">
-        <v>0.0007672177600767793</v>
+        <v>0.0007479789191016256</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4162779093957525</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.030526706593335</v>
+        <v>0.5124990955102078</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.330228907337045</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.397670956742047</v>
+        <v>1.959039233735297</v>
       </c>
       <c r="C19">
-        <v>1.068720747430262</v>
+        <v>0.3700498382832222</v>
       </c>
       <c r="D19">
-        <v>0.02311772431045966</v>
+        <v>0.4850003448744928</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.171541282627757</v>
+        <v>9.282682859450176</v>
       </c>
       <c r="G19">
-        <v>0.0007678279042093515</v>
+        <v>0.0007489581976414848</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4146316238382255</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.021139017907728</v>
+        <v>0.5071907274268312</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.280214238184797</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.537623478707701</v>
+        <v>2.05091672257339</v>
       </c>
       <c r="C20">
-        <v>1.113838324272535</v>
+        <v>0.3876226234655746</v>
       </c>
       <c r="D20">
-        <v>0.02301235939661694</v>
+        <v>0.5044269213252335</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.212180585573677</v>
+        <v>9.67251351113228</v>
       </c>
       <c r="G20">
-        <v>0.0007650870786560148</v>
+        <v>0.0007445444735863528</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4222408715989232</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.06347601659067</v>
+        <v>0.5312271685410579</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.508020075715507</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.013222398512596</v>
+        <v>2.370422478437433</v>
       </c>
       <c r="C21">
-        <v>1.267742268325492</v>
+        <v>0.4490678993569475</v>
       </c>
       <c r="D21">
-        <v>0.02274712525417755</v>
+        <v>0.5722547121225148</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.355906745171353</v>
+        <v>11.02945903232455</v>
       </c>
       <c r="G21">
-        <v>0.0007559552764256905</v>
+        <v>0.0007295402236076054</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4515630970647067</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.207492419307513</v>
+        <v>0.6149106031195828</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.33059629841091</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.328741851492566</v>
+        <v>2.588963845868761</v>
       </c>
       <c r="C22">
-        <v>1.370341599616893</v>
+        <v>0.4914041910720357</v>
       </c>
       <c r="D22">
-        <v>0.02264823992117471</v>
+        <v>0.6189748401811812</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.455854552021592</v>
+        <v>11.95995107136247</v>
       </c>
       <c r="G22">
-        <v>0.0007500333625725109</v>
+        <v>0.0007195240583111051</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4738416160742602</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.303157172528117</v>
+        <v>0.6722373623240685</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.925153007984449</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.159867833425722</v>
+        <v>2.471314369420725</v>
       </c>
       <c r="C23">
-        <v>1.315378366028654</v>
+        <v>0.4685815516808418</v>
       </c>
       <c r="D23">
-        <v>0.02269362878184467</v>
+        <v>0.5937844987437586</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.401915149473865</v>
+        <v>11.4587049907143</v>
       </c>
       <c r="G23">
-        <v>0.00075319052650368</v>
+        <v>0.0007248951205987601</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4616446436246804</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.251942833843287</v>
+        <v>0.6413672611146737</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.601486497461366</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.529919352071943</v>
+        <v>2.045834371855449</v>
       </c>
       <c r="C24">
-        <v>1.11135266290745</v>
+        <v>0.3866494530135611</v>
       </c>
       <c r="D24">
-        <v>0.02301783106020139</v>
+        <v>0.5033515462098137</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.209923424898321</v>
+        <v>9.65094708061855</v>
       </c>
       <c r="G24">
-        <v>0.0007652372752667037</v>
+        <v>0.0007447873393828328</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4218096316406985</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.061144945052504</v>
+        <v>0.5298972363120029</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.495324474635183</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.866319239436336</v>
+        <v>1.61859606510842</v>
       </c>
       <c r="C25">
-        <v>0.8981338380906436</v>
+        <v>0.3052884059873406</v>
       </c>
       <c r="D25">
-        <v>0.0236363026418438</v>
+        <v>0.4132093833478336</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.024548608390575</v>
+        <v>7.838159779494731</v>
       </c>
       <c r="G25">
-        <v>0.0007784995272760671</v>
+        <v>0.0007658099181001976</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3902557916047513</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8605749479290097</v>
+        <v>0.4182281712186864</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>3.464709941260878</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.322585557768377</v>
+        <v>1.06015426195728</v>
       </c>
       <c r="C2">
-        <v>0.2493817244251773</v>
+        <v>0.1613283162827912</v>
       </c>
       <c r="D2">
-        <v>0.3508937255868005</v>
+        <v>0.1007243388327126</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.580367957903945</v>
+        <v>0.3027904029201594</v>
       </c>
       <c r="G2">
-        <v>0.0007812843266747469</v>
+        <v>0.0008066372743107254</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3409940583706614</v>
+        <v>1.125446829489363</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.787086449427647</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.871054812904859</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.130210182182992</v>
+        <v>0.9230880789373259</v>
       </c>
       <c r="C3">
-        <v>0.2132047691001446</v>
+        <v>0.1459073016058028</v>
       </c>
       <c r="D3">
-        <v>0.3103549717448573</v>
+        <v>0.08984503246121278</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.760982895608635</v>
+        <v>0.3015307615838942</v>
       </c>
       <c r="G3">
-        <v>0.000791899176813599</v>
+        <v>0.0008099272648424863</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2908464248382003</v>
+        <v>0.9838964888925261</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.3599765227614</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9058097133708713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.01524796086369</v>
+        <v>0.8389561866714246</v>
       </c>
       <c r="C4">
-        <v>0.1916248576182795</v>
+        <v>0.1364366618274886</v>
       </c>
       <c r="D4">
-        <v>0.286080504397745</v>
+        <v>0.08315129605696825</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.270237788163939</v>
+        <v>0.3017209867451065</v>
       </c>
       <c r="G4">
-        <v>0.0007985133180078926</v>
+        <v>0.0008120126704211017</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2608904066637336</v>
+        <v>0.8969378277597571</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.109175453727687</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9302735835959624</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9690765124902612</v>
+        <v>0.8046689478703968</v>
       </c>
       <c r="C5">
-        <v>0.182962621251562</v>
+        <v>0.1325759855217967</v>
       </c>
       <c r="D5">
-        <v>0.2763155611293655</v>
+        <v>0.08041954479050162</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.072860326765493</v>
+        <v>0.3020303718265467</v>
       </c>
       <c r="G5">
-        <v>0.000801237171476028</v>
+        <v>0.0008128791876953177</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2488608874229286</v>
+        <v>0.8614807087578811</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.009319346152708</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9409976244127165</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9614474653827756</v>
+        <v>0.7989751365866198</v>
       </c>
       <c r="C6">
-        <v>0.1815314799752485</v>
+        <v>0.131934821799959</v>
       </c>
       <c r="D6">
-        <v>0.2747010255034326</v>
+        <v>0.07996568320174191</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.040229754332813</v>
+        <v>0.3020954519044139</v>
       </c>
       <c r="G6">
-        <v>0.0008016913027363284</v>
+        <v>0.0008130240883781779</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2468732634865347</v>
+        <v>0.8555915710713009</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.992866274677169</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.942823056623439</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.01462268240158</v>
+        <v>0.8384938007250469</v>
       </c>
       <c r="C7">
-        <v>0.1915075361080341</v>
+        <v>0.1363846017204224</v>
       </c>
       <c r="D7">
-        <v>0.2859483307079387</v>
+        <v>0.08311447157293372</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.267565958333307</v>
+        <v>0.3017242338897788</v>
       </c>
       <c r="G7">
-        <v>0.0007985499321528384</v>
+        <v>0.0008120242886906076</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2607274922483569</v>
+        <v>0.8964597363795974</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.107819890488557</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9304151952724879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.255524252556455</v>
+        <v>1.012882135435774</v>
       </c>
       <c r="C8">
-        <v>0.236759012611941</v>
+        <v>0.1560110814670992</v>
       </c>
       <c r="D8">
-        <v>0.3367700261619859</v>
+        <v>0.09697568539858992</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.294954856703299</v>
+        <v>0.3021496444522711</v>
       </c>
       <c r="G8">
-        <v>0.0007849270293545096</v>
+        <v>0.0008077582670958145</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3235093286142146</v>
+        <v>1.076644133004862</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.63709254596921</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8823709300279319</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.759121070453034</v>
+        <v>1.355555124462427</v>
       </c>
       <c r="C9">
-        <v>0.3319550106117219</v>
+        <v>0.1945226656090853</v>
       </c>
       <c r="D9">
-        <v>0.442813987760843</v>
+        <v>0.1240748681516948</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.434529383447284</v>
+        <v>0.3111238070480908</v>
       </c>
       <c r="G9">
-        <v>0.0007587495694038226</v>
+        <v>0.0007998982626863536</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4549304244792438</v>
+        <v>1.430076846750438</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.796206191696754</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.8143979997931865</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.158337297415585</v>
+        <v>1.60847923821737</v>
       </c>
       <c r="C10">
-        <v>0.4082222247417633</v>
+        <v>0.2228954747826606</v>
       </c>
       <c r="D10">
-        <v>0.5271793872523745</v>
+        <v>0.1439760331933968</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.12843847092427</v>
+        <v>0.323400886407434</v>
       </c>
       <c r="G10">
-        <v>0.0007394442220086334</v>
+        <v>0.000794412956338557</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5593454307224235</v>
+        <v>1.690504760045599</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.779057137523225</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.7825748767848069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.349189824922803</v>
+        <v>1.723970394200052</v>
       </c>
       <c r="C11">
-        <v>0.4449680911250198</v>
+        <v>0.2358355588245615</v>
       </c>
       <c r="D11">
-        <v>0.5677314967469442</v>
+        <v>0.1530377900335225</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.93918363056406</v>
+        <v>0.3303897749788476</v>
       </c>
       <c r="G11">
-        <v>0.000730522846102697</v>
+        <v>0.0007919760044274205</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6093447462661459</v>
+        <v>1.809315464258532</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.274321981086118</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.7725302902653084</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.42309657372121</v>
+        <v>1.767781758007061</v>
       </c>
       <c r="C12">
-        <v>0.4592489768166388</v>
+        <v>0.2407417457594931</v>
       </c>
       <c r="D12">
-        <v>0.5834872848446935</v>
+        <v>0.1564713409537859</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.25350027794269</v>
+        <v>0.3332532454528661</v>
       </c>
       <c r="G12">
-        <v>0.0007271102710561745</v>
+        <v>0.0007910612042743292</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6287213200233879</v>
+        <v>1.854369734272439</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.471290099746327</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.7694085258389123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.407101109769229</v>
+        <v>1.758342507626452</v>
       </c>
       <c r="C13">
-        <v>0.4561557581578199</v>
+        <v>0.2396848195114529</v>
       </c>
       <c r="D13">
-        <v>0.5800745533085205</v>
+        <v>0.1557317589742127</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.18545251464195</v>
+        <v>0.3326266481575786</v>
       </c>
       <c r="G13">
-        <v>0.0007278470301639359</v>
+        <v>0.00079125787233295</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6245270023460634</v>
+        <v>1.844663440526773</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.4283992740163</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.7700497849003938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.355235415599424</v>
+        <v>1.727573141877883</v>
       </c>
       <c r="C14">
-        <v>0.4461351914644638</v>
+        <v>0.2362390645978962</v>
       </c>
       <c r="D14">
-        <v>0.5690191354066201</v>
+        <v>0.1533202241242293</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.96488591331359</v>
+        <v>0.3306209172818626</v>
       </c>
       <c r="G14">
-        <v>0.0007302428759861404</v>
+        <v>0.0007919005847853645</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6109294486897952</v>
+        <v>1.813020753479719</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.290319811923567</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.7722595287815608</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.323689328998199</v>
+        <v>1.708736552232409</v>
       </c>
       <c r="C15">
-        <v>0.4400473370023121</v>
+        <v>0.2341292692418193</v>
       </c>
       <c r="D15">
-        <v>0.5623024295288701</v>
+        <v>0.1518433831061401</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.83078662203144</v>
+        <v>0.3294210624494482</v>
       </c>
       <c r="G15">
-        <v>0.000731705441227348</v>
+        <v>0.0007922952977951407</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6026610206234935</v>
+        <v>1.793647369827795</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.207060715096247</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.773703237134896</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.146075329271952</v>
+        <v>1.600941612718429</v>
       </c>
       <c r="C16">
-        <v>0.4058678178362527</v>
+        <v>0.2220505849240908</v>
       </c>
       <c r="D16">
-        <v>0.5245798390654954</v>
+        <v>0.1433840683014154</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.07638401213569</v>
+        <v>0.322973662063518</v>
       </c>
       <c r="G16">
-        <v>0.0007400233347800867</v>
+        <v>0.000794573359702181</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5561348997450466</v>
+        <v>1.682748250564345</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.74785122835236</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.7833242435417702</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.039680678875442</v>
+        <v>1.53493448396344</v>
       </c>
       <c r="C17">
-        <v>0.385471315600924</v>
+        <v>0.2146500800399735</v>
       </c>
       <c r="D17">
-        <v>0.502049610831989</v>
+        <v>0.1381973252093474</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.62483495946887</v>
+        <v>0.3193883921169984</v>
       </c>
       <c r="G17">
-        <v>0.0007450815971717363</v>
+        <v>0.0007959855639778369</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5282870089786513</v>
+        <v>1.614812302904085</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.479967718632864</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.7903923870435818</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.979334055810313</v>
+        <v>1.497008893692822</v>
       </c>
       <c r="C18">
-        <v>0.3739278761216269</v>
+        <v>0.2103965422956406</v>
       </c>
       <c r="D18">
-        <v>0.4892890661026001</v>
+        <v>0.1352148061637308</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.368786218269889</v>
+        <v>0.3174574348741288</v>
       </c>
       <c r="G18">
-        <v>0.0007479789191016256</v>
+        <v>0.0007968033411722975</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5124990955102078</v>
+        <v>1.575768500427301</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.330228907337045</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.7948721157086993</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.959039233735297</v>
+        <v>1.484174369075646</v>
       </c>
       <c r="C19">
-        <v>0.3700498382832222</v>
+        <v>0.2089568514468141</v>
       </c>
       <c r="D19">
-        <v>0.4850003448744928</v>
+        <v>0.1342050826679753</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.282682859450176</v>
+        <v>0.3168257357804691</v>
       </c>
       <c r="G19">
-        <v>0.0007489581976414848</v>
+        <v>0.0007970811845924262</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5071907274268312</v>
+        <v>1.562553874532682</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.280214238184797</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.7964587215238339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.05091672257339</v>
+        <v>1.541956815124792</v>
       </c>
       <c r="C20">
-        <v>0.3876226234655746</v>
+        <v>0.2154375530866162</v>
       </c>
       <c r="D20">
-        <v>0.5044269213252335</v>
+        <v>0.1387493786165379</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.67251351113228</v>
+        <v>0.3197563660668337</v>
       </c>
       <c r="G20">
-        <v>0.0007445444735863528</v>
+        <v>0.0007958346642727061</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5312271685410579</v>
+        <v>1.622040876035157</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.508020075715507</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.7895967765633429</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.370422478437433</v>
+        <v>1.736608626842667</v>
       </c>
       <c r="C21">
-        <v>0.4490678993569475</v>
+        <v>0.2372509911221385</v>
       </c>
       <c r="D21">
-        <v>0.5722547121225148</v>
+        <v>0.1540284876060412</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.02945903232455</v>
+        <v>0.3312040370558336</v>
       </c>
       <c r="G21">
-        <v>0.0007295402236076054</v>
+        <v>0.0007917115898485372</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6149106031195828</v>
+        <v>1.822313142729882</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.33059629841091</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.7715915970834857</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.588963845868761</v>
+        <v>1.864283496545653</v>
       </c>
       <c r="C22">
-        <v>0.4914041910720357</v>
+        <v>0.2515433197104215</v>
       </c>
       <c r="D22">
-        <v>0.6189748401811812</v>
+        <v>0.1640267025044722</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.95995107136247</v>
+        <v>0.3399578629378439</v>
       </c>
       <c r="G22">
-        <v>0.0007195240583111051</v>
+        <v>0.0007890634856137678</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6722373623240685</v>
+        <v>1.953578616224462</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.925153007984449</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.7638216252874486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.471314369420725</v>
+        <v>1.7960938516716</v>
       </c>
       <c r="C23">
-        <v>0.4685815516808418</v>
+        <v>0.2439114880571793</v>
       </c>
       <c r="D23">
-        <v>0.5937844987437586</v>
+        <v>0.1586890420860527</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.4587049907143</v>
+        <v>0.3351641620673433</v>
       </c>
       <c r="G23">
-        <v>0.0007248951205987601</v>
+        <v>0.0007904726957426459</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6413672611146737</v>
+        <v>1.883480374449618</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.601486497461366</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.7675873412374301</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.045834371855449</v>
+        <v>1.538781949339523</v>
       </c>
       <c r="C24">
-        <v>0.3866494530135611</v>
+        <v>0.2150815331579565</v>
       </c>
       <c r="D24">
-        <v>0.5033515462098137</v>
+        <v>0.138499797174191</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.65094708061855</v>
+        <v>0.3195896004326499</v>
       </c>
       <c r="G24">
-        <v>0.0007447873393828328</v>
+        <v>0.0007959028676864655</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5298972363120029</v>
+        <v>1.618772797202496</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.495324474635183</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.7899551791589801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.61859606510842</v>
+        <v>1.262705212355257</v>
       </c>
       <c r="C25">
-        <v>0.3052884059873406</v>
+        <v>0.1840954054451061</v>
       </c>
       <c r="D25">
-        <v>0.4132093833478336</v>
+        <v>0.1167485261737085</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.838159779494731</v>
+        <v>0.3077526065463658</v>
       </c>
       <c r="G25">
-        <v>0.0007658099181001976</v>
+        <v>0.0008019723543696566</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4182281712186864</v>
+        <v>1.334384300135213</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.464709941260878</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.8297657802515772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.06015426195728</v>
+        <v>0.3716285467045566</v>
       </c>
       <c r="C2">
-        <v>0.1613283162827912</v>
+        <v>0.06544907146837886</v>
       </c>
       <c r="D2">
-        <v>0.1007243388327126</v>
+        <v>0.04076986049102516</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3027904029201594</v>
+        <v>0.6070174621996784</v>
       </c>
       <c r="G2">
-        <v>0.0008066372743107254</v>
+        <v>0.002426301788116866</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.125446829489363</v>
+        <v>0.3606523740884882</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.871054812904859</v>
+        <v>2.095359081369153</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9230880789373259</v>
+        <v>0.3286982756553698</v>
       </c>
       <c r="C3">
-        <v>0.1459073016058028</v>
+        <v>0.06021385274033264</v>
       </c>
       <c r="D3">
-        <v>0.08984503246121278</v>
+        <v>0.0370816087447281</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3015307615838942</v>
+        <v>0.6134064335909244</v>
       </c>
       <c r="G3">
-        <v>0.0008099272648424863</v>
+        <v>0.002428405432934679</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9838964888925261</v>
+        <v>0.3151961777028589</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9058097133708713</v>
+        <v>2.127085120025782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8389561866714246</v>
+        <v>0.3023021525647209</v>
       </c>
       <c r="C4">
-        <v>0.1364366618274886</v>
+        <v>0.05698592691695126</v>
       </c>
       <c r="D4">
-        <v>0.08315129605696825</v>
+        <v>0.03480300740248765</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3017209867451065</v>
+        <v>0.6177997880937234</v>
       </c>
       <c r="G4">
-        <v>0.0008120126704211017</v>
+        <v>0.002429765549338581</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8969378277597571</v>
+        <v>0.287195536463372</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9302735835959624</v>
+        <v>2.148101152560258</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8046689478703968</v>
+        <v>0.2915369647572277</v>
       </c>
       <c r="C5">
-        <v>0.1325759855217967</v>
+        <v>0.05566723372611193</v>
       </c>
       <c r="D5">
-        <v>0.08041954479050162</v>
+        <v>0.03387099590720766</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3020303718265467</v>
+        <v>0.619708337814739</v>
       </c>
       <c r="G5">
-        <v>0.0008128791876953177</v>
+        <v>0.002430337075355686</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8614807087578811</v>
+        <v>0.2757630643721996</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9409976244127165</v>
+        <v>2.157051264148727</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7989751365866198</v>
+        <v>0.2897489173143697</v>
       </c>
       <c r="C6">
-        <v>0.131934821799959</v>
+        <v>0.05544807021470888</v>
       </c>
       <c r="D6">
-        <v>0.07996568320174191</v>
+        <v>0.03371602864851297</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3020954519044139</v>
+        <v>0.6200323887409738</v>
       </c>
       <c r="G6">
-        <v>0.0008130240883781779</v>
+        <v>0.002430433020814964</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8555915710713009</v>
+        <v>0.2738634050855353</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.942823056623439</v>
+        <v>2.158560720612215</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8384938007250469</v>
+        <v>0.3021570031911551</v>
       </c>
       <c r="C7">
-        <v>0.1363846017204224</v>
+        <v>0.05696815573261915</v>
       </c>
       <c r="D7">
-        <v>0.08311447157293372</v>
+        <v>0.03479045191413377</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3017242338897788</v>
+        <v>0.6178250489042654</v>
       </c>
       <c r="G7">
-        <v>0.0008120242886906076</v>
+        <v>0.002429773187410999</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8964597363795974</v>
+        <v>0.2870414421777525</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9304151952724879</v>
+        <v>2.148220294849324</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.012882135435774</v>
+        <v>0.3568342202024724</v>
       </c>
       <c r="C8">
-        <v>0.1560110814670992</v>
+        <v>0.06364682567000557</v>
       </c>
       <c r="D8">
-        <v>0.09697568539858992</v>
+        <v>0.03950109029539561</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3021496444522711</v>
+        <v>0.6091226736593711</v>
       </c>
       <c r="G8">
-        <v>0.0008077582670958145</v>
+        <v>0.002427012943324451</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.076644133004862</v>
+        <v>0.3449982576634625</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8823709300279319</v>
+        <v>2.105979183975279</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.355555124462427</v>
+        <v>0.4637392244407579</v>
       </c>
       <c r="C9">
-        <v>0.1945226656090853</v>
+        <v>0.07663283647127628</v>
       </c>
       <c r="D9">
-        <v>0.1240748681516948</v>
+        <v>0.04862545129162754</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3111238070480908</v>
+        <v>0.5957947920603957</v>
       </c>
       <c r="G9">
-        <v>0.0007998982626863536</v>
+        <v>0.002422141145696715</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.430076846750438</v>
+        <v>0.4579075417107674</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8143979997931865</v>
+        <v>2.035348610471132</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.60847923821737</v>
+        <v>0.5420630305033569</v>
       </c>
       <c r="C10">
-        <v>0.2228954747826606</v>
+        <v>0.08610179115012784</v>
       </c>
       <c r="D10">
-        <v>0.1439760331933968</v>
+        <v>0.05525790706056455</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.323400886407434</v>
+        <v>0.5882874452326874</v>
       </c>
       <c r="G10">
-        <v>0.000794412956338557</v>
+        <v>0.002418888497428124</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.690504760045599</v>
+        <v>0.5403802729211122</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7825748767848069</v>
+        <v>1.990917219762764</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.723970394200052</v>
+        <v>0.5776418887651005</v>
       </c>
       <c r="C11">
-        <v>0.2358355588245615</v>
+        <v>0.0903930114507574</v>
       </c>
       <c r="D11">
-        <v>0.1530377900335225</v>
+        <v>0.05825928987744078</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3303897749788476</v>
+        <v>0.5853695921030493</v>
       </c>
       <c r="G11">
-        <v>0.0007919760044274205</v>
+        <v>0.002417479041721634</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.809315464258532</v>
+        <v>0.577789183106205</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7725302902653084</v>
+        <v>1.972328752254882</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.767781758007061</v>
+        <v>0.5911067438036071</v>
       </c>
       <c r="C12">
-        <v>0.2407417457594931</v>
+        <v>0.09201555710920672</v>
       </c>
       <c r="D12">
-        <v>0.1564713409537859</v>
+        <v>0.05939351991538899</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3332532454528661</v>
+        <v>0.5843362893746402</v>
       </c>
       <c r="G12">
-        <v>0.0007910612042743292</v>
+        <v>0.002416955359911807</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.854369734272439</v>
+        <v>0.5919387485575101</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7694085258389123</v>
+        <v>1.965523651319941</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.758342507626452</v>
+        <v>0.5882072178798126</v>
       </c>
       <c r="C13">
-        <v>0.2396848195114529</v>
+        <v>0.09166622339922981</v>
       </c>
       <c r="D13">
-        <v>0.1557317589742127</v>
+        <v>0.05914934774445157</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3326266481575786</v>
+        <v>0.5845556422190796</v>
       </c>
       <c r="G13">
-        <v>0.00079125787233295</v>
+        <v>0.002417067697706719</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.844663440526773</v>
+        <v>0.5888921274861616</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7700497849003938</v>
+        <v>1.966978839083893</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.727573141877883</v>
+        <v>0.5787498168316745</v>
       </c>
       <c r="C14">
-        <v>0.2362390645978962</v>
+        <v>0.09052654890740541</v>
       </c>
       <c r="D14">
-        <v>0.1533202241242293</v>
+        <v>0.05835265069254092</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3306209172818626</v>
+        <v>0.5852831455300134</v>
       </c>
       <c r="G14">
-        <v>0.0007919005847853645</v>
+        <v>0.002417435757080858</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.813020753479719</v>
+        <v>0.5789536091409673</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7722595287815608</v>
+        <v>1.971764201109679</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.708736552232409</v>
+        <v>0.5729558103717238</v>
       </c>
       <c r="C15">
-        <v>0.2341292692418193</v>
+        <v>0.08982814356899382</v>
       </c>
       <c r="D15">
-        <v>0.1518433831061401</v>
+        <v>0.05786434563839293</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3294210624494482</v>
+        <v>0.5857380934439931</v>
       </c>
       <c r="G15">
-        <v>0.0007922952977951407</v>
+        <v>0.002417662511087604</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.793647369827795</v>
+        <v>0.5728638233395316</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.773703237134896</v>
+        <v>1.974725854614022</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600941612718429</v>
+        <v>0.5397367775248654</v>
       </c>
       <c r="C16">
-        <v>0.2220505849240908</v>
+        <v>0.08582101339875692</v>
       </c>
       <c r="D16">
-        <v>0.1433840683014154</v>
+        <v>0.05506143722271872</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.322973662063518</v>
+        <v>0.5884881503243662</v>
       </c>
       <c r="G16">
-        <v>0.000794573359702181</v>
+        <v>0.002418982017363802</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.682748250564345</v>
+        <v>0.5379332642415591</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7833242435417702</v>
+        <v>1.992164731580687</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.53493448396344</v>
+        <v>0.5193443729210685</v>
       </c>
       <c r="C17">
-        <v>0.2146500800399735</v>
+        <v>0.08335852789079468</v>
       </c>
       <c r="D17">
-        <v>0.1381973252093474</v>
+        <v>0.05333786367977211</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3193883921169984</v>
+        <v>0.5903026694711713</v>
       </c>
       <c r="G17">
-        <v>0.0007959855639778369</v>
+        <v>0.002419809437444073</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.614812302904085</v>
+        <v>0.516476179091228</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7903923870435818</v>
+        <v>2.003279099915261</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.497008893692822</v>
+        <v>0.5076104421293905</v>
       </c>
       <c r="C18">
-        <v>0.2103965422956406</v>
+        <v>0.08194064785851651</v>
       </c>
       <c r="D18">
-        <v>0.1352148061637308</v>
+        <v>0.05234503062328599</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3174574348741288</v>
+        <v>0.5913931320155044</v>
       </c>
       <c r="G18">
-        <v>0.0007968033411722975</v>
+        <v>0.002420291956608862</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.575768500427301</v>
+        <v>0.5041244803193479</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7948721157086993</v>
+        <v>2.009824582709157</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.484174369075646</v>
+        <v>0.5036367402411486</v>
       </c>
       <c r="C19">
-        <v>0.2089568514468141</v>
+        <v>0.08146031970892409</v>
       </c>
       <c r="D19">
-        <v>0.1342050826679753</v>
+        <v>0.0520086222883549</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3168257357804691</v>
+        <v>0.591770378095795</v>
       </c>
       <c r="G19">
-        <v>0.0007970811845924262</v>
+        <v>0.002420456466202592</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.562553874532682</v>
+        <v>0.4999406882427309</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7964587215238339</v>
+        <v>2.012066998317096</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.541956815124792</v>
+        <v>0.5215156771705551</v>
       </c>
       <c r="C20">
-        <v>0.2154375530866162</v>
+        <v>0.0836208221442547</v>
       </c>
       <c r="D20">
-        <v>0.1387493786165379</v>
+        <v>0.05352149456808775</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3197563660668337</v>
+        <v>0.5901046664232652</v>
       </c>
       <c r="G20">
-        <v>0.0007958346642727061</v>
+        <v>0.00241972067332075</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.622040876035157</v>
+        <v>0.5187613787972793</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7895967765633429</v>
+        <v>2.002080139556767</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.736608626842667</v>
+        <v>0.5815279101805402</v>
       </c>
       <c r="C21">
-        <v>0.2372509911221385</v>
+        <v>0.09086136619006879</v>
       </c>
       <c r="D21">
-        <v>0.1540284876060412</v>
+        <v>0.0585867236247708</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3312040370558336</v>
+        <v>0.5850675153669584</v>
       </c>
       <c r="G21">
-        <v>0.0007917115898485372</v>
+        <v>0.002417327376580083</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.822313142729882</v>
+        <v>0.5818732436895857</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7715915970834857</v>
+        <v>1.970352271205286</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.864283496545653</v>
+        <v>0.6207018945407299</v>
       </c>
       <c r="C22">
-        <v>0.2515433197104215</v>
+        <v>0.09557917108784864</v>
       </c>
       <c r="D22">
-        <v>0.1640267025044722</v>
+        <v>0.06188354225680825</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3399578629378439</v>
+        <v>0.5821929840942985</v>
       </c>
       <c r="G22">
-        <v>0.0007890634856137678</v>
+        <v>0.002415821769806831</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.953578616224462</v>
+        <v>0.6230246710190386</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7638216252874486</v>
+        <v>1.950980124196263</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.7960938516716</v>
+        <v>0.5997985925980629</v>
       </c>
       <c r="C23">
-        <v>0.2439114880571793</v>
+        <v>0.09306253493397776</v>
       </c>
       <c r="D23">
-        <v>0.1586890420860527</v>
+        <v>0.06012523340298515</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3351641620673433</v>
+        <v>0.5836889324657051</v>
       </c>
       <c r="G23">
-        <v>0.0007904726957426459</v>
+        <v>0.002416619997853093</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.883480374449618</v>
+        <v>0.6010704100810642</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7675873412374301</v>
+        <v>1.961194454407973</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.538781949339523</v>
+        <v>0.5205340618168179</v>
       </c>
       <c r="C24">
-        <v>0.2150815331579565</v>
+        <v>0.08350224564557607</v>
       </c>
       <c r="D24">
-        <v>0.138499797174191</v>
+        <v>0.05343848104274684</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3195896004326499</v>
+        <v>0.590194036364295</v>
       </c>
       <c r="G24">
-        <v>0.0007959028676864655</v>
+        <v>0.002419760782344883</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.618772797202496</v>
+        <v>0.5177282889623598</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7899551791589801</v>
+        <v>2.002621704625966</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.262705212355257</v>
+        <v>0.4348552223001718</v>
       </c>
       <c r="C25">
-        <v>0.1840954054451061</v>
+        <v>0.07313208951659078</v>
       </c>
       <c r="D25">
-        <v>0.1167485261737085</v>
+        <v>0.04616941659448059</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3077526065463658</v>
+        <v>0.5989995716096459</v>
       </c>
       <c r="G25">
-        <v>0.0008019723543696566</v>
+        <v>0.002423401503257521</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.334384300135213</v>
+        <v>0.4274451569747839</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8297657802515772</v>
+        <v>2.053147344731812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3716285467045566</v>
+        <v>1.060154261957393</v>
       </c>
       <c r="C2">
-        <v>0.06544907146837886</v>
+        <v>0.1613283162827202</v>
       </c>
       <c r="D2">
-        <v>0.04076986049102516</v>
+        <v>0.1007243388326202</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6070174621996784</v>
+        <v>0.302790402920138</v>
       </c>
       <c r="G2">
-        <v>0.002426301788116866</v>
+        <v>0.0008066372743082001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3606523740884882</v>
+        <v>1.125446829489476</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.095359081369153</v>
+        <v>0.8710548129048874</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3286982756553698</v>
+        <v>0.9230880789372122</v>
       </c>
       <c r="C3">
-        <v>0.06021385274033264</v>
+        <v>0.1459073016057744</v>
       </c>
       <c r="D3">
-        <v>0.0370816087447281</v>
+        <v>0.0898450324612412</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6134064335909244</v>
+        <v>0.3015307615838907</v>
       </c>
       <c r="G3">
-        <v>0.002428405432934679</v>
+        <v>0.0008099272649148799</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3151961777028589</v>
+        <v>0.983896488892583</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.127085120025782</v>
+        <v>0.905809713370914</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3023021525647209</v>
+        <v>0.838956186671453</v>
       </c>
       <c r="C4">
-        <v>0.05698592691695126</v>
+        <v>0.1364366618274175</v>
       </c>
       <c r="D4">
-        <v>0.03480300740248765</v>
+        <v>0.08315129605708194</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6177997880937234</v>
+        <v>0.3017209867451029</v>
       </c>
       <c r="G4">
-        <v>0.002429765549338581</v>
+        <v>0.0008120126704908925</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.287195536463372</v>
+        <v>0.8969378277598139</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.148101152560258</v>
+        <v>0.9302735835960192</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2915369647572277</v>
+        <v>0.8046689478703968</v>
       </c>
       <c r="C5">
-        <v>0.05566723372611193</v>
+        <v>0.1325759855218251</v>
       </c>
       <c r="D5">
-        <v>0.03387099590720766</v>
+        <v>0.08041954479064373</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.619708337814739</v>
+        <v>0.3020303718265325</v>
       </c>
       <c r="G5">
-        <v>0.002430337075355686</v>
+        <v>0.0008128791877652427</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2757630643721996</v>
+        <v>0.8614807087579379</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.157051264148727</v>
+        <v>0.9409976244127591</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2897489173143697</v>
+        <v>0.7989751365864208</v>
       </c>
       <c r="C6">
-        <v>0.05544807021470888</v>
+        <v>0.1319348218000016</v>
       </c>
       <c r="D6">
-        <v>0.03371602864851297</v>
+        <v>0.07996568320186981</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6200323887409738</v>
+        <v>0.3020954519044103</v>
       </c>
       <c r="G6">
-        <v>0.002430433020814964</v>
+        <v>0.0008130240883809257</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2738634050855353</v>
+        <v>0.8555915710712725</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.158560720612215</v>
+        <v>0.9428230566234532</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3021570031911551</v>
+        <v>0.8384938007251606</v>
       </c>
       <c r="C7">
-        <v>0.05696815573261915</v>
+        <v>0.1363846017204509</v>
       </c>
       <c r="D7">
-        <v>0.03479045191413377</v>
+        <v>0.08311447157302609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6178250489042654</v>
+        <v>0.3017242338897859</v>
       </c>
       <c r="G7">
-        <v>0.002429773187410999</v>
+        <v>0.0008120242886921516</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2870414421777525</v>
+        <v>0.8964597363796827</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.148220294849324</v>
+        <v>0.9304151952724027</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3568342202024724</v>
+        <v>1.012882135435916</v>
       </c>
       <c r="C8">
-        <v>0.06364682567000557</v>
+        <v>0.1560110814669571</v>
       </c>
       <c r="D8">
-        <v>0.03950109029539561</v>
+        <v>0.09697568539861123</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6091226736593711</v>
+        <v>0.3021496444522711</v>
       </c>
       <c r="G8">
-        <v>0.002427012943324451</v>
+        <v>0.0008077582671088104</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3449982576634625</v>
+        <v>1.076644133004891</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.105979183975279</v>
+        <v>0.8823709300279177</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4637392244407579</v>
+        <v>1.355555124462541</v>
       </c>
       <c r="C9">
-        <v>0.07663283647127628</v>
+        <v>0.1945226656090853</v>
       </c>
       <c r="D9">
-        <v>0.04862545129162754</v>
+        <v>0.1240748681518511</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5957947920603957</v>
+        <v>0.311123807048105</v>
       </c>
       <c r="G9">
-        <v>0.002422141145696715</v>
+        <v>0.000799898262673126</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4579075417107674</v>
+        <v>1.430076846750353</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.035348610471132</v>
+        <v>0.8143979997931865</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5420630305033569</v>
+        <v>1.608479238217541</v>
       </c>
       <c r="C10">
-        <v>0.08610179115012784</v>
+        <v>0.2228954747824048</v>
       </c>
       <c r="D10">
-        <v>0.05525790706056455</v>
+        <v>0.1439760331933968</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5882874452326874</v>
+        <v>0.3234008864074198</v>
       </c>
       <c r="G10">
-        <v>0.002418888497428124</v>
+        <v>0.0007944129562235158</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5403802729211122</v>
+        <v>1.690504760045485</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.990917219762764</v>
+        <v>0.7825748767847642</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5776418887651005</v>
+        <v>1.723970394200052</v>
       </c>
       <c r="C11">
-        <v>0.0903930114507574</v>
+        <v>0.2358355588248173</v>
       </c>
       <c r="D11">
-        <v>0.05825928987744078</v>
+        <v>0.1530377900337783</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5853695921030493</v>
+        <v>0.3303897749788476</v>
       </c>
       <c r="G11">
-        <v>0.002417479041721634</v>
+        <v>0.0007919760044436743</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.577789183106205</v>
+        <v>1.80931546425839</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.972328752254882</v>
+        <v>0.7725302902652658</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5911067438036071</v>
+        <v>1.767781758007146</v>
       </c>
       <c r="C12">
-        <v>0.09201555710920672</v>
+        <v>0.2407417457592658</v>
       </c>
       <c r="D12">
-        <v>0.05939351991538899</v>
+        <v>0.1564713409537575</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5843362893746402</v>
+        <v>0.3332532454528732</v>
       </c>
       <c r="G12">
-        <v>0.002416955359911807</v>
+        <v>0.0007910612043479876</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5919387485575101</v>
+        <v>1.854369734272467</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.965523651319941</v>
+        <v>0.7694085258389123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5882072178798126</v>
+        <v>1.758342507626537</v>
       </c>
       <c r="C13">
-        <v>0.09166622339922981</v>
+        <v>0.2396848195114671</v>
       </c>
       <c r="D13">
-        <v>0.05914934774445157</v>
+        <v>0.1557317589740705</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5845556422190796</v>
+        <v>0.3326266481575786</v>
       </c>
       <c r="G13">
-        <v>0.002417067697706719</v>
+        <v>0.0007912578722894368</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5888921274861616</v>
+        <v>1.844663440526887</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.966978839083893</v>
+        <v>0.7700497849003654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5787498168316745</v>
+        <v>1.727573141877912</v>
       </c>
       <c r="C14">
-        <v>0.09052654890740541</v>
+        <v>0.2362390645983794</v>
       </c>
       <c r="D14">
-        <v>0.05835265069254092</v>
+        <v>0.1533202241243572</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5852831455300134</v>
+        <v>0.3306209172818484</v>
       </c>
       <c r="G14">
-        <v>0.002417435757080858</v>
+        <v>0.0007919005847131352</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5789536091409673</v>
+        <v>1.813020753479691</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.971764201109679</v>
+        <v>0.772259528781575</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5729558103717238</v>
+        <v>1.708736552232409</v>
       </c>
       <c r="C15">
-        <v>0.08982814356899382</v>
+        <v>0.2341292692420041</v>
       </c>
       <c r="D15">
-        <v>0.05786434563839293</v>
+        <v>0.1518433831061259</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5857380934439931</v>
+        <v>0.3294210624494482</v>
       </c>
       <c r="G15">
-        <v>0.002417662511087604</v>
+        <v>0.0007922952978684029</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5728638233395316</v>
+        <v>1.79364736982788</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.974725854614022</v>
+        <v>0.773703237134896</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5397367775248654</v>
+        <v>1.600941612718316</v>
       </c>
       <c r="C16">
-        <v>0.08582101339875692</v>
+        <v>0.2220505849243182</v>
       </c>
       <c r="D16">
-        <v>0.05506143722271872</v>
+        <v>0.1433840683011454</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5884881503243662</v>
+        <v>0.3229736620635322</v>
       </c>
       <c r="G16">
-        <v>0.002418982017363802</v>
+        <v>0.0007945733596874671</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5379332642415591</v>
+        <v>1.682748250564345</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.992164731580687</v>
+        <v>0.783324243541756</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5193443729210685</v>
+        <v>1.534934483963326</v>
       </c>
       <c r="C17">
-        <v>0.08335852789079468</v>
+        <v>0.2146500800399735</v>
       </c>
       <c r="D17">
-        <v>0.05333786367977211</v>
+        <v>0.1381973252092052</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5903026694711713</v>
+        <v>0.3193883921170055</v>
       </c>
       <c r="G17">
-        <v>0.002419809437444073</v>
+        <v>0.0007959855639769214</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.516476179091228</v>
+        <v>1.61481230290417</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.003279099915261</v>
+        <v>0.790392387043596</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5076104421293905</v>
+        <v>1.497008893692765</v>
       </c>
       <c r="C18">
-        <v>0.08194064785851651</v>
+        <v>0.2103965422956406</v>
       </c>
       <c r="D18">
-        <v>0.05234503062328599</v>
+        <v>0.1352148061638445</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5913931320155044</v>
+        <v>0.3174574348741288</v>
       </c>
       <c r="G18">
-        <v>0.002420291956608862</v>
+        <v>0.0007968033411728251</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5041244803193479</v>
+        <v>1.575768500427245</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.009824582709157</v>
+        <v>0.7948721157086283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5036367402411486</v>
+        <v>1.484174369075504</v>
       </c>
       <c r="C19">
-        <v>0.08146031970892409</v>
+        <v>0.2089568514470272</v>
       </c>
       <c r="D19">
-        <v>0.0520086222883549</v>
+        <v>0.1342050826681032</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.591770378095795</v>
+        <v>0.3168257357804691</v>
       </c>
       <c r="G19">
-        <v>0.002420456466202592</v>
+        <v>0.0007970811845352985</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4999406882427309</v>
+        <v>1.562553874532682</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.012066998317096</v>
+        <v>0.7964587215238339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5215156771705551</v>
+        <v>1.541956815124706</v>
       </c>
       <c r="C20">
-        <v>0.0836208221442547</v>
+        <v>0.2154375530863888</v>
       </c>
       <c r="D20">
-        <v>0.05352149456808775</v>
+        <v>0.1387493786164242</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5901046664232652</v>
+        <v>0.319756366066855</v>
       </c>
       <c r="G20">
-        <v>0.00241972067332075</v>
+        <v>0.0007958346642875841</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5187613787972793</v>
+        <v>1.622040876035101</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.002080139556767</v>
+        <v>0.7895967765633287</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5815279101805402</v>
+        <v>1.736608626842724</v>
       </c>
       <c r="C21">
-        <v>0.09086136619006879</v>
+        <v>0.2372509911222238</v>
       </c>
       <c r="D21">
-        <v>0.0585867236247708</v>
+        <v>0.1540284876061691</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5850675153669584</v>
+        <v>0.3312040370558123</v>
       </c>
       <c r="G21">
-        <v>0.002417327376580083</v>
+        <v>0.000791711589851067</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5818732436895857</v>
+        <v>1.822313142729854</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.970352271205286</v>
+        <v>0.7715915970834004</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6207018945407299</v>
+        <v>1.864283496545795</v>
       </c>
       <c r="C22">
-        <v>0.09557917108784864</v>
+        <v>0.2515433197103647</v>
       </c>
       <c r="D22">
-        <v>0.06188354225680825</v>
+        <v>0.1640267025044295</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5821929840942985</v>
+        <v>0.339957862937851</v>
       </c>
       <c r="G22">
-        <v>0.002415821769806831</v>
+        <v>0.0007890634856704271</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6230246710190386</v>
+        <v>1.953578616224519</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.950980124196263</v>
+        <v>0.7638216252874486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5997985925980629</v>
+        <v>1.796093851671486</v>
       </c>
       <c r="C23">
-        <v>0.09306253493397776</v>
+        <v>0.2439114880569662</v>
       </c>
       <c r="D23">
-        <v>0.06012523340298515</v>
+        <v>0.1586890420860669</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5836889324657051</v>
+        <v>0.3351641620673433</v>
       </c>
       <c r="G23">
-        <v>0.002416619997853093</v>
+        <v>0.0007904726957282115</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6010704100810642</v>
+        <v>1.883480374449618</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.961194454407973</v>
+        <v>0.7675873412374159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5205340618168179</v>
+        <v>1.538781949339665</v>
       </c>
       <c r="C24">
-        <v>0.08350224564557607</v>
+        <v>0.2150815331579139</v>
       </c>
       <c r="D24">
-        <v>0.05343848104274684</v>
+        <v>0.1384997971743473</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.590194036364295</v>
+        <v>0.3195896004326499</v>
       </c>
       <c r="G24">
-        <v>0.002419760782344883</v>
+        <v>0.0007959028676295665</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5177282889623598</v>
+        <v>1.618772797202553</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.002621704625966</v>
+        <v>0.7899551791589943</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4348552223001718</v>
+        <v>1.262705212355314</v>
       </c>
       <c r="C25">
-        <v>0.07313208951659078</v>
+        <v>0.1840954054451487</v>
       </c>
       <c r="D25">
-        <v>0.04616941659448059</v>
+        <v>0.1167485261737795</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5989995716096459</v>
+        <v>0.3077526065463658</v>
       </c>
       <c r="G25">
-        <v>0.002423401503257521</v>
+        <v>0.0008019723544413701</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4274451569747839</v>
+        <v>1.334384300135298</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.053147344731812</v>
+        <v>0.8297657802516341</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.060154261957393</v>
+        <v>0.5324256130552953</v>
       </c>
       <c r="C2">
-        <v>0.1613283162827202</v>
+        <v>0.1351811587610285</v>
       </c>
       <c r="D2">
-        <v>0.1007243388326202</v>
+        <v>0.05096261598061957</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.302790402920138</v>
+        <v>0.879795997126422</v>
       </c>
       <c r="G2">
-        <v>0.0008066372743082001</v>
+        <v>0.8082964839480411</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.022898614707842E-05</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001286816084490994</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5636331002747994</v>
       </c>
       <c r="K2">
-        <v>1.125446829489476</v>
+        <v>0.5918583514513287</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6345754691488139</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8710548129048874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.501996886393428</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9230880789372122</v>
+        <v>0.4650612106531327</v>
       </c>
       <c r="C3">
-        <v>0.1459073016057744</v>
+        <v>0.1190534697992547</v>
       </c>
       <c r="D3">
-        <v>0.0898450324612412</v>
+        <v>0.0480918618844548</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3015307615838907</v>
+        <v>0.8189072763440564</v>
       </c>
       <c r="G3">
-        <v>0.0008099272649148799</v>
+        <v>0.7543194413370173</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.696478620269673E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002360369336071422</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.542681647437135</v>
       </c>
       <c r="K3">
-        <v>0.983896488892583</v>
+        <v>0.567451613245062</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5553425350880445</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.905809713370914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.171859933698585</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.838956186671453</v>
+        <v>0.4235173761291691</v>
       </c>
       <c r="C4">
-        <v>0.1364366618274175</v>
+        <v>0.1093139102720073</v>
       </c>
       <c r="D4">
-        <v>0.08315129605708194</v>
+        <v>0.04631455826188358</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3017209867451029</v>
+        <v>0.7819167110732579</v>
       </c>
       <c r="G4">
-        <v>0.0008120126704908925</v>
+        <v>0.7214513637101163</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0002954261842811334</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003302289670038761</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5300193218104852</v>
       </c>
       <c r="K4">
-        <v>0.8969378277598139</v>
+        <v>0.5525048649751199</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5067356920371111</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9302735835960192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.969978591625448</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8046689478703968</v>
+        <v>0.4063162766586714</v>
       </c>
       <c r="C5">
-        <v>0.1325759855218251</v>
+        <v>0.1056698445028985</v>
       </c>
       <c r="D5">
-        <v>0.08041954479064373</v>
+        <v>0.04564306661708173</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3020303718265325</v>
+        <v>0.7657314533888808</v>
       </c>
       <c r="G5">
-        <v>0.0008128791877652427</v>
+        <v>0.70678711399826</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0004614694365367988</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00383083660671435</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5242224308838956</v>
       </c>
       <c r="K5">
-        <v>0.8614807087579379</v>
+        <v>0.5454136695383838</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4871691100193516</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9409976244127591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.88786000130446</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7989751365864208</v>
+        <v>0.4031829650554073</v>
       </c>
       <c r="C6">
-        <v>0.1319348218000016</v>
+        <v>0.1054212328822359</v>
       </c>
       <c r="D6">
-        <v>0.07996568320186981</v>
+        <v>0.0456010318054787</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3020954519044103</v>
+        <v>0.7615825500962288</v>
       </c>
       <c r="G6">
-        <v>0.0008130240883809257</v>
+        <v>0.7027315560861638</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0004931625030160092</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004024361750115446</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5224277378701174</v>
       </c>
       <c r="K6">
-        <v>0.8555915710712725</v>
+        <v>0.5430077934242874</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4842103449345103</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9428230566234532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.874217368973888</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8384938007251606</v>
+        <v>0.4225339215466875</v>
       </c>
       <c r="C7">
-        <v>0.1363846017204509</v>
+        <v>0.1102336389950977</v>
       </c>
       <c r="D7">
-        <v>0.08311447157302609</v>
+        <v>0.04649681873576128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3017242338897859</v>
+        <v>0.7776890156636753</v>
       </c>
       <c r="G7">
-        <v>0.0008120242886921516</v>
+        <v>0.7168130487137319</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0002981335901264259</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003569970356467778</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5276608625617314</v>
       </c>
       <c r="K7">
-        <v>0.8964597363796827</v>
+        <v>0.5490505178553491</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5072660320347353</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9304151952724027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.968827080295952</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.012882135435916</v>
+        <v>0.5082282751206293</v>
       </c>
       <c r="C8">
-        <v>0.1560110814669571</v>
+        <v>0.1308759333113443</v>
       </c>
       <c r="D8">
-        <v>0.09697568539861123</v>
+        <v>0.05023422169037062</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3021496444522711</v>
+        <v>0.8533976208073568</v>
       </c>
       <c r="G8">
-        <v>0.0008077582671088104</v>
+        <v>0.7837344532995871</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.51653480520153E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001903555541836077</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5533515133304121</v>
       </c>
       <c r="K8">
-        <v>1.076644133004891</v>
+        <v>0.5789860317654814</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6083017470195955</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8823709300279177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.387903367989907</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.355555124462541</v>
+        <v>0.6763028625273932</v>
       </c>
       <c r="C9">
-        <v>0.1945226656090853</v>
+        <v>0.1711152801990607</v>
       </c>
       <c r="D9">
-        <v>0.1240748681518511</v>
+        <v>0.0571040374370142</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.311123807048105</v>
+        <v>1.012727560466018</v>
       </c>
       <c r="G9">
-        <v>0.000799898262673126</v>
+        <v>0.9256070017378875</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001864065700653228</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006693506001616001</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6096248713524091</v>
       </c>
       <c r="K9">
-        <v>1.430076846750353</v>
+        <v>0.6442099027173711</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.8056517386427373</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8143979997931865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.218520252370041</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.608479238217541</v>
+        <v>0.814698612369483</v>
       </c>
       <c r="C10">
-        <v>0.2228954747824048</v>
+        <v>0.2047646496774718</v>
       </c>
       <c r="D10">
-        <v>0.1439760331933968</v>
+        <v>0.063321323410932</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3234008864074198</v>
+        <v>1.109966381876447</v>
       </c>
       <c r="G10">
-        <v>0.0007944129562235158</v>
+        <v>1.006934261246329</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00460356417428498</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001581096658540559</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6396241098380102</v>
       </c>
       <c r="K10">
-        <v>1.690504760045485</v>
+        <v>0.6753102435036951</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9692182088366224</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7825748767847642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.636195868848105</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.723970394200052</v>
+        <v>1.02436511830382</v>
       </c>
       <c r="C11">
-        <v>0.2358355588248173</v>
+        <v>0.2441530652926929</v>
       </c>
       <c r="D11">
-        <v>0.1530377900337783</v>
+        <v>0.0778839021775255</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3303897749788476</v>
+        <v>0.9743804682406676</v>
       </c>
       <c r="G11">
-        <v>0.0007919760044436743</v>
+        <v>0.8473889185394938</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02070977508154925</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002447773583111434</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5535906920324436</v>
       </c>
       <c r="K11">
-        <v>1.80931546425839</v>
+        <v>0.5564502943203991</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.206112556965053</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7725302902652658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.291083430488172</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.767781758007146</v>
+        <v>1.186473832350202</v>
       </c>
       <c r="C12">
-        <v>0.2407417457592658</v>
+        <v>0.2705152383005327</v>
       </c>
       <c r="D12">
-        <v>0.1564713409537575</v>
+        <v>0.09051737148556782</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3332532454528732</v>
+        <v>0.8535255047097792</v>
       </c>
       <c r="G12">
-        <v>0.0007910612043479876</v>
+        <v>0.714310995611271</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05814794160755099</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002527555814669569</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4835341605295582</v>
       </c>
       <c r="K12">
-        <v>1.854369734272467</v>
+        <v>0.4651323565137133</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.384025079418677</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7694085258389123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.344052193929159</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.758342507626537</v>
+        <v>1.317946566431118</v>
       </c>
       <c r="C13">
-        <v>0.2396848195114671</v>
+        <v>0.2895310361220993</v>
       </c>
       <c r="D13">
-        <v>0.1557317589740705</v>
+        <v>0.102457517912967</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3326266481575786</v>
+        <v>0.7305269068572784</v>
       </c>
       <c r="G13">
-        <v>0.0007912578722894368</v>
+        <v>0.5866333684520981</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132873748531722</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002319543901292853</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4179184076759412</v>
       </c>
       <c r="K13">
-        <v>1.844663440526887</v>
+        <v>0.3841040161215687</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.525644527459576</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7700497849003654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6419178404908337</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.727573141877912</v>
+        <v>1.396151633485715</v>
       </c>
       <c r="C14">
-        <v>0.2362390645983794</v>
+        <v>0.2999698397328672</v>
       </c>
       <c r="D14">
-        <v>0.1533202241243572</v>
+        <v>0.1107109635419761</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3306209172818484</v>
+        <v>0.6439948133664473</v>
       </c>
       <c r="G14">
-        <v>0.0007919005847131352</v>
+        <v>0.5006447470686766</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624698743919453</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002145831968641154</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3743473534631931</v>
       </c>
       <c r="K14">
-        <v>1.813020753479691</v>
+        <v>0.3328246237152968</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.609034193502708</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.772259528781575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2953443897430645</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.708736552232409</v>
+        <v>1.40618578211209</v>
       </c>
       <c r="C15">
-        <v>0.2341292692420041</v>
+        <v>0.301202718759825</v>
       </c>
       <c r="D15">
-        <v>0.1518433831061259</v>
+        <v>0.1124395755574454</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3294210624494482</v>
+        <v>0.6204465958286178</v>
       </c>
       <c r="G15">
-        <v>0.0007922952978684029</v>
+        <v>0.4783224163608679</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.17495351323997</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002155342522923931</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3634509207724221</v>
       </c>
       <c r="K15">
-        <v>1.79364736982788</v>
+        <v>0.3205114611836635</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.61988583619106</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.773703237134896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.228870981860851</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600941612718316</v>
+        <v>1.313825435016895</v>
       </c>
       <c r="C16">
-        <v>0.2220505849243182</v>
+        <v>0.2825943532230752</v>
       </c>
       <c r="D16">
-        <v>0.1433840683011454</v>
+        <v>0.1069460112557152</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3229736620635322</v>
+        <v>0.603272077541142</v>
       </c>
       <c r="G16">
-        <v>0.0007945733596874671</v>
+        <v>0.4690047970652955</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621275717342741</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001811386324506614</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3633228435326146</v>
       </c>
       <c r="K16">
-        <v>1.682748250564345</v>
+        <v>0.3230173110221664</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.515167186207577</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.783324243541756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2236581328996614</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.534934483963326</v>
+        <v>1.201509029362626</v>
       </c>
       <c r="C17">
-        <v>0.2146500800399735</v>
+        <v>0.262845601069472</v>
       </c>
       <c r="D17">
-        <v>0.1381973252092052</v>
+        <v>0.09830224847070923</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3193883921170055</v>
+        <v>0.6351280944791853</v>
       </c>
       <c r="G17">
-        <v>0.0007959855639769214</v>
+        <v>0.5062133745024653</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242592872299895</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001716099205346211</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3858382139543153</v>
       </c>
       <c r="K17">
-        <v>1.61481230290417</v>
+        <v>0.3511160144416046</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.390695978755929</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.790392387043596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3768389214847474</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.497008893692765</v>
+        <v>1.065217706029642</v>
       </c>
       <c r="C18">
-        <v>0.2103965422956406</v>
+        <v>0.2394616524465079</v>
       </c>
       <c r="D18">
-        <v>0.1352148061638445</v>
+        <v>0.0865003658866712</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3174574348741288</v>
+        <v>0.7192561153272763</v>
       </c>
       <c r="G18">
-        <v>0.0007968033411728251</v>
+        <v>0.5960643805050267</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133928987947513</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001457251337959597</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4344023498284741</v>
       </c>
       <c r="K18">
-        <v>1.575768500427245</v>
+        <v>0.411216496466082</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.239541809304711</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7948721157086283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8082020874025915</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.484174369075504</v>
+        <v>0.9247179604427913</v>
       </c>
       <c r="C19">
-        <v>0.2089568514470272</v>
+        <v>0.2182689307609849</v>
       </c>
       <c r="D19">
-        <v>0.1342050826681032</v>
+        <v>0.07485868147755781</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3168257357804691</v>
+        <v>0.8399888054519948</v>
       </c>
       <c r="G19">
-        <v>0.0007970811845352985</v>
+        <v>0.7249475524758111</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02640086569324751</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00159051062411919</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5015056025571027</v>
       </c>
       <c r="K19">
-        <v>1.562553874532682</v>
+        <v>0.4962878611617043</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.087302480554939</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7964587215238339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.628292106538495</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.541956815124706</v>
+        <v>0.776544568747056</v>
       </c>
       <c r="C20">
-        <v>0.2154375530863888</v>
+        <v>0.1990742442973357</v>
       </c>
       <c r="D20">
-        <v>0.1387493786164242</v>
+        <v>0.06238976739007995</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.319756366066855</v>
+        <v>1.070881117401512</v>
       </c>
       <c r="G20">
-        <v>0.0007958346642875841</v>
+        <v>0.9706742263417567</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003737865527783768</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001965742208377641</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6241492289069015</v>
       </c>
       <c r="K20">
-        <v>1.622040876035101</v>
+        <v>0.6561092046821173</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9293989538901712</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7895967765633287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.517643189552956</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.736608626842724</v>
+        <v>0.8585224161919314</v>
       </c>
       <c r="C21">
-        <v>0.2372509911222238</v>
+        <v>0.2210764433815342</v>
       </c>
       <c r="D21">
-        <v>0.1540284876061691</v>
+        <v>0.06527631133991463</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3312040370558123</v>
+        <v>1.181575102579998</v>
       </c>
       <c r="G21">
-        <v>0.000791711589851067</v>
+        <v>1.072601235043109</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007122826299795992</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003164260843417033</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6672383657793262</v>
       </c>
       <c r="K21">
-        <v>1.822313142729854</v>
+        <v>0.7067839062812524</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.028090657060829</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7715915970834004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.152497224797088</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.864283496545795</v>
+        <v>0.9211287406928932</v>
       </c>
       <c r="C22">
-        <v>0.2515433197103647</v>
+        <v>0.235693366652697</v>
       </c>
       <c r="D22">
-        <v>0.1640267025044295</v>
+        <v>0.06746081423455053</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.339957862937851</v>
+        <v>1.249397826581117</v>
       </c>
       <c r="G22">
-        <v>0.0007890634856704271</v>
+        <v>1.134007879358293</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.009576077071954042</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004045945767356507</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6927964491081866</v>
       </c>
       <c r="K22">
-        <v>1.953578616224519</v>
+        <v>0.7364868545544923</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.100642727250602</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7638216252874486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.468023574042775</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.796093851671486</v>
+        <v>0.888645782414045</v>
       </c>
       <c r="C23">
-        <v>0.2439114880569662</v>
+        <v>0.2266707071697027</v>
       </c>
       <c r="D23">
-        <v>0.1586890420860669</v>
+        <v>0.06604848879732828</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3351641620673433</v>
+        <v>1.217865198365573</v>
       </c>
       <c r="G23">
-        <v>0.0007904726957282115</v>
+        <v>1.106418556799312</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008228307481709385</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003257588406881062</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6817838667590337</v>
       </c>
       <c r="K23">
-        <v>1.883480374449618</v>
+        <v>0.7245552943439719</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.060929466299598</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7675873412374159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.299431977396381</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.538781949339665</v>
+        <v>0.7640813284282899</v>
       </c>
       <c r="C24">
-        <v>0.2150815331579139</v>
+        <v>0.1950150359905223</v>
       </c>
       <c r="D24">
-        <v>0.1384997971743473</v>
+        <v>0.06107149503442599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3195896004326499</v>
+        <v>1.092789205442884</v>
       </c>
       <c r="G24">
-        <v>0.0007959028676295665</v>
+        <v>0.9952133414487747</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003999609914095315</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001503970532821697</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6367240006786545</v>
       </c>
       <c r="K24">
-        <v>1.618772797202553</v>
+        <v>0.6737092675161023</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9126686177912973</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7899551791589943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.666252102569445</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.262705212355314</v>
+        <v>0.6295657173625102</v>
       </c>
       <c r="C25">
-        <v>0.1840954054451487</v>
+        <v>0.1618274969896021</v>
       </c>
       <c r="D25">
-        <v>0.1167485261737795</v>
+        <v>0.0556203672698139</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3077526065463658</v>
+        <v>0.9618851251004088</v>
       </c>
       <c r="G25">
-        <v>0.0008019723544413701</v>
+        <v>0.8788211198662452</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001072061942899882</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001141255599257818</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5900723532233911</v>
       </c>
       <c r="K25">
-        <v>1.334384300135298</v>
+        <v>0.6204224548934647</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7536039846319085</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8297657802516341</v>
+        <v>2.992458978754144</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5324256130552953</v>
+        <v>0.51914543143549</v>
       </c>
       <c r="C2">
-        <v>0.1351811587610285</v>
+        <v>0.1585942651836376</v>
       </c>
       <c r="D2">
-        <v>0.05096261598061957</v>
+        <v>0.05605066632103473</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.879795997126422</v>
+        <v>0.7504794663514147</v>
       </c>
       <c r="G2">
-        <v>0.8082964839480411</v>
+        <v>0.6475576984400249</v>
       </c>
       <c r="H2">
-        <v>9.022898614707842E-05</v>
+        <v>0.0001173686079907199</v>
       </c>
       <c r="I2">
-        <v>0.001286816084490994</v>
+        <v>0.000909044972510209</v>
       </c>
       <c r="J2">
-        <v>0.5636331002747994</v>
+        <v>0.5179332015126761</v>
       </c>
       <c r="K2">
-        <v>0.5918583514513287</v>
+        <v>0.4768093368139574</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2257110671863742</v>
       </c>
       <c r="M2">
-        <v>0.6345754691488139</v>
+        <v>0.1388445983839439</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.501996886393428</v>
+        <v>0.6633635398473672</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.505334855759457</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4650612106531327</v>
+        <v>0.4563288902887308</v>
       </c>
       <c r="C3">
-        <v>0.1190534697992547</v>
+        <v>0.1367378098992731</v>
       </c>
       <c r="D3">
-        <v>0.0480918618844548</v>
+        <v>0.05164988225363487</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8189072763440564</v>
+        <v>0.7070601946520227</v>
       </c>
       <c r="G3">
-        <v>0.7543194413370173</v>
+        <v>0.614354970808094</v>
       </c>
       <c r="H3">
-        <v>4.696478620269673E-05</v>
+        <v>2.714028149508607E-05</v>
       </c>
       <c r="I3">
-        <v>0.002360369336071422</v>
+        <v>0.001544939932998091</v>
       </c>
       <c r="J3">
-        <v>0.542681647437135</v>
+        <v>0.5023992803153732</v>
       </c>
       <c r="K3">
-        <v>0.567451613245062</v>
+        <v>0.4655639638556046</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2273516343394633</v>
       </c>
       <c r="M3">
-        <v>0.5553425350880445</v>
+        <v>0.129953837854508</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.171859933698585</v>
+        <v>0.5802586655360642</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.175556047067445</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4235173761291691</v>
+        <v>0.4174880411635939</v>
       </c>
       <c r="C4">
-        <v>0.1093139102720073</v>
+        <v>0.123586769472027</v>
       </c>
       <c r="D4">
-        <v>0.04631455826188358</v>
+        <v>0.0489572356339707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7819167110732579</v>
+        <v>0.6805915418728574</v>
       </c>
       <c r="G4">
-        <v>0.7214513637101163</v>
+        <v>0.5942041635593256</v>
       </c>
       <c r="H4">
-        <v>0.0002954261842811334</v>
+        <v>0.0002356799151290723</v>
       </c>
       <c r="I4">
-        <v>0.003302289670038761</v>
+        <v>0.002154754893712862</v>
       </c>
       <c r="J4">
-        <v>0.5300193218104852</v>
+        <v>0.4927777568110514</v>
       </c>
       <c r="K4">
-        <v>0.5525048649751199</v>
+        <v>0.4585835421739297</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.228222473985511</v>
       </c>
       <c r="M4">
-        <v>0.5067356920371111</v>
+        <v>0.1250932559852771</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.969978591625448</v>
+        <v>0.5292596199340664</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.973820675119086</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4063162766586714</v>
+        <v>0.4013868027611522</v>
       </c>
       <c r="C5">
-        <v>0.1056698445028985</v>
+        <v>0.1186061826831946</v>
       </c>
       <c r="D5">
-        <v>0.04564306661708173</v>
+        <v>0.04792749138783137</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7657314533888808</v>
+        <v>0.6688276827827835</v>
       </c>
       <c r="G5">
-        <v>0.70678711399826</v>
+        <v>0.5849469805185805</v>
       </c>
       <c r="H5">
-        <v>0.0004614694365367988</v>
+        <v>0.000382818483817271</v>
       </c>
       <c r="I5">
-        <v>0.00383083660671435</v>
+        <v>0.002543783338905925</v>
       </c>
       <c r="J5">
-        <v>0.5242224308838956</v>
+        <v>0.4882472038096921</v>
       </c>
       <c r="K5">
-        <v>0.5454136695383838</v>
+        <v>0.4549114838203074</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2281762166917218</v>
       </c>
       <c r="M5">
-        <v>0.4871691100193516</v>
+        <v>0.1230221740438679</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.88786000130446</v>
+        <v>0.5087036260157163</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.891746074368498</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4031829650554073</v>
+        <v>0.3984587659140573</v>
       </c>
       <c r="C6">
-        <v>0.1054212328822359</v>
+        <v>0.1181710252919714</v>
       </c>
       <c r="D6">
-        <v>0.0456010318054787</v>
+        <v>0.04783715109075715</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7615825500962288</v>
+        <v>0.6656334227675487</v>
       </c>
       <c r="G6">
-        <v>0.7027315560861638</v>
+        <v>0.5820750334097227</v>
       </c>
       <c r="H6">
-        <v>0.0004931625030160092</v>
+        <v>0.0004111603539893594</v>
       </c>
       <c r="I6">
-        <v>0.004024361750115446</v>
+        <v>0.002728031002302345</v>
       </c>
       <c r="J6">
-        <v>0.5224277378701174</v>
+        <v>0.4867763340463966</v>
       </c>
       <c r="K6">
-        <v>0.5430077934242874</v>
+        <v>0.4533169068402074</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2277198956446824</v>
       </c>
       <c r="M6">
-        <v>0.4842103449345103</v>
+        <v>0.1223947015522384</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.874217368973888</v>
+        <v>0.5055653384135184</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.878110961535114</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4225339215466875</v>
+        <v>0.4167302039160461</v>
       </c>
       <c r="C7">
-        <v>0.1102336389950977</v>
+        <v>0.1242582665786784</v>
       </c>
       <c r="D7">
-        <v>0.04649681873576128</v>
+        <v>0.0493022743131597</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7776890156636753</v>
+        <v>0.6750250660542534</v>
       </c>
       <c r="G7">
-        <v>0.7168130487137319</v>
+        <v>0.5930357973340818</v>
       </c>
       <c r="H7">
-        <v>0.0002981335901264259</v>
+        <v>0.0002383209257019736</v>
       </c>
       <c r="I7">
-        <v>0.003569970356467778</v>
+        <v>0.002463533982412613</v>
       </c>
       <c r="J7">
-        <v>0.5276608625617314</v>
+        <v>0.4845799644619291</v>
       </c>
       <c r="K7">
-        <v>0.5490505178553491</v>
+        <v>0.4546477008134886</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2264915142250032</v>
       </c>
       <c r="M7">
-        <v>0.5072660320347353</v>
+        <v>0.1238744972203847</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.968827080295952</v>
+        <v>0.5294476304915605</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.972651438164348</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5082282751206293</v>
+        <v>0.4971145108803796</v>
       </c>
       <c r="C8">
-        <v>0.1308759333113443</v>
+        <v>0.151330521182814</v>
       </c>
       <c r="D8">
-        <v>0.05023422169037062</v>
+        <v>0.05530622265452934</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8533976208073568</v>
+        <v>0.7243430198334977</v>
       </c>
       <c r="G8">
-        <v>0.7837344532995871</v>
+        <v>0.6399904634827038</v>
       </c>
       <c r="H8">
-        <v>1.51653480520153E-05</v>
+        <v>2.814989264532386E-05</v>
       </c>
       <c r="I8">
-        <v>0.001903555541836077</v>
+        <v>0.001446805084316161</v>
       </c>
       <c r="J8">
-        <v>0.5533515133304121</v>
+        <v>0.4898261291379526</v>
       </c>
       <c r="K8">
-        <v>0.5789860317654814</v>
+        <v>0.4654956527511089</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2231944835013273</v>
       </c>
       <c r="M8">
-        <v>0.6083017470195955</v>
+        <v>0.1331634431373487</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.387903367989907</v>
+        <v>0.634741091357256</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.391309522182638</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6763028625273932</v>
+        <v>0.6533460634258859</v>
       </c>
       <c r="C9">
-        <v>0.1711152801990607</v>
+        <v>0.2060310330243595</v>
       </c>
       <c r="D9">
-        <v>0.0571040374370142</v>
+        <v>0.06625459649243481</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.012727560466018</v>
+        <v>0.8363033033181466</v>
       </c>
       <c r="G9">
-        <v>0.9256070017378875</v>
+        <v>0.7313851165512659</v>
       </c>
       <c r="H9">
-        <v>0.001864065700653228</v>
+        <v>0.001920256769970319</v>
       </c>
       <c r="I9">
-        <v>0.0006693506001616001</v>
+        <v>0.0008548797893448423</v>
       </c>
       <c r="J9">
-        <v>0.6096248713524091</v>
+        <v>0.5249361373145121</v>
       </c>
       <c r="K9">
-        <v>0.6442099027173711</v>
+        <v>0.4953783862788157</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2195490973044656</v>
       </c>
       <c r="M9">
-        <v>0.8056517386427373</v>
+        <v>0.1591551496691359</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.218520252370041</v>
+        <v>0.8413612556826706</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.220479228779254</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.814698612369483</v>
+        <v>0.7836287243543438</v>
       </c>
       <c r="C10">
-        <v>0.2047646496774718</v>
+        <v>0.2485215598635193</v>
       </c>
       <c r="D10">
-        <v>0.063321323410932</v>
+        <v>0.07667307562886805</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.109966381876447</v>
+        <v>0.891446023588756</v>
       </c>
       <c r="G10">
-        <v>1.006934261246329</v>
+        <v>0.7974087152639839</v>
       </c>
       <c r="H10">
-        <v>0.00460356417428498</v>
+        <v>0.004611607977479615</v>
       </c>
       <c r="I10">
-        <v>0.001581096658540559</v>
+        <v>0.001850463724197837</v>
       </c>
       <c r="J10">
-        <v>0.6396241098380102</v>
+        <v>0.5075310713172172</v>
       </c>
       <c r="K10">
-        <v>0.6753102435036951</v>
+        <v>0.4985673855660906</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2096314268044885</v>
       </c>
       <c r="M10">
-        <v>0.9692182088366224</v>
+        <v>0.1738880525180804</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.636195868848105</v>
+        <v>1.009622037810743</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.636397241231862</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02436511830382</v>
+        <v>0.9939204338550098</v>
       </c>
       <c r="C11">
-        <v>0.2441530652926929</v>
+        <v>0.2843773010046817</v>
       </c>
       <c r="D11">
-        <v>0.0778839021775255</v>
+        <v>0.09621323926972281</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9743804682406676</v>
+        <v>0.7633216908541982</v>
       </c>
       <c r="G11">
-        <v>0.8473889185394938</v>
+        <v>0.7042497120052218</v>
       </c>
       <c r="H11">
-        <v>0.02070977508154925</v>
+        <v>0.02069872911346238</v>
       </c>
       <c r="I11">
-        <v>0.002447773583111434</v>
+        <v>0.002769629569165488</v>
       </c>
       <c r="J11">
-        <v>0.5535906920324436</v>
+        <v>0.3855694266010374</v>
       </c>
       <c r="K11">
-        <v>0.5564502943203991</v>
+        <v>0.4005449213659418</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1709924830863301</v>
       </c>
       <c r="M11">
-        <v>1.206112556965053</v>
+        <v>0.1403276252974415</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.291083430488172</v>
+        <v>1.243307617863593</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.290801425538518</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.186473832350202</v>
+        <v>1.158441253886281</v>
       </c>
       <c r="C12">
-        <v>0.2705152383005327</v>
+        <v>0.3058506885864745</v>
       </c>
       <c r="D12">
-        <v>0.09051737148556782</v>
+        <v>0.1113237565190417</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8535255047097792</v>
+        <v>0.6627979963863311</v>
       </c>
       <c r="G12">
-        <v>0.714310995611271</v>
+        <v>0.6134364252843625</v>
       </c>
       <c r="H12">
-        <v>0.05814794160755099</v>
+        <v>0.05813947001308861</v>
       </c>
       <c r="I12">
-        <v>0.002527555814669569</v>
+        <v>0.002835278920680473</v>
       </c>
       <c r="J12">
-        <v>0.4835341605295582</v>
+        <v>0.320321763849357</v>
       </c>
       <c r="K12">
-        <v>0.4651323565137133</v>
+        <v>0.3338518615848862</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1471063563740245</v>
       </c>
       <c r="M12">
-        <v>1.384025079418677</v>
+        <v>0.1147254795549273</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.344052193929159</v>
+        <v>1.41742419489762</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.343826870950011</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.317946566431118</v>
+        <v>1.293230735043295</v>
       </c>
       <c r="C13">
-        <v>0.2895310361220993</v>
+        <v>0.3201140135819571</v>
       </c>
       <c r="D13">
-        <v>0.102457517912967</v>
+        <v>0.123001016652637</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7305269068572784</v>
+        <v>0.5743133870535004</v>
       </c>
       <c r="G13">
-        <v>0.5866333684520981</v>
+        <v>0.509503115910519</v>
       </c>
       <c r="H13">
-        <v>0.1132873748531722</v>
+        <v>0.1132858669153762</v>
       </c>
       <c r="I13">
-        <v>0.002319543901292853</v>
+        <v>0.00265234402633574</v>
       </c>
       <c r="J13">
-        <v>0.4179184076759412</v>
+        <v>0.2895044275428589</v>
       </c>
       <c r="K13">
-        <v>0.3841040161215687</v>
+        <v>0.2828835347029255</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1304667831834951</v>
       </c>
       <c r="M13">
-        <v>1.525644527459576</v>
+        <v>0.09293685209165758</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6419178404908337</v>
+        <v>1.555775461008693</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6418711361859764</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.396151633485715</v>
+        <v>1.374151987885426</v>
       </c>
       <c r="C14">
-        <v>0.2999698397328672</v>
+        <v>0.3272890750828594</v>
       </c>
       <c r="D14">
-        <v>0.1107109635419761</v>
+        <v>0.1296147308623432</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6439948133664473</v>
+        <v>0.5166648938965395</v>
       </c>
       <c r="G14">
-        <v>0.5006447470686766</v>
+        <v>0.4334022543411606</v>
       </c>
       <c r="H14">
-        <v>0.1624698743919453</v>
+        <v>0.1624701810283398</v>
       </c>
       <c r="I14">
-        <v>0.002145831968641154</v>
+        <v>0.002520406592760871</v>
       </c>
       <c r="J14">
-        <v>0.3743473534631931</v>
+        <v>0.2790980504808118</v>
       </c>
       <c r="K14">
-        <v>0.3328246237152968</v>
+        <v>0.2535134989230095</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.121474442895666</v>
       </c>
       <c r="M14">
-        <v>1.609034193502708</v>
+        <v>0.07944508553504193</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2953443897430645</v>
+        <v>1.63709243872222</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2953614455628042</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.40618578211209</v>
+        <v>1.384975997719749</v>
       </c>
       <c r="C15">
-        <v>0.301202718759825</v>
+        <v>0.3278530590704918</v>
       </c>
       <c r="D15">
-        <v>0.1124395755574454</v>
+        <v>0.1303837985413026</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6204465958286178</v>
+        <v>0.5027188936222302</v>
       </c>
       <c r="G15">
-        <v>0.4783224163608679</v>
+        <v>0.4115414114361329</v>
       </c>
       <c r="H15">
-        <v>0.17495351323997</v>
+        <v>0.1749535724832612</v>
       </c>
       <c r="I15">
-        <v>0.002155342522923931</v>
+        <v>0.002566739920373706</v>
       </c>
       <c r="J15">
-        <v>0.3634509207724221</v>
+        <v>0.2804707872852745</v>
       </c>
       <c r="K15">
-        <v>0.3205114611836635</v>
+        <v>0.247554791136924</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1198731151377714</v>
       </c>
       <c r="M15">
-        <v>1.61988583619106</v>
+        <v>0.07630812070491189</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.228870981860851</v>
+        <v>1.647654076630801</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.22889595935996</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.313825435016895</v>
+        <v>1.293577952337586</v>
       </c>
       <c r="C16">
-        <v>0.2825943532230752</v>
+        <v>0.3102430536341956</v>
       </c>
       <c r="D16">
-        <v>0.1069460112557152</v>
+        <v>0.120554546600431</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.603272077541142</v>
+        <v>0.5079425738213459</v>
       </c>
       <c r="G16">
-        <v>0.4690047970652955</v>
+        <v>0.3866293364221036</v>
       </c>
       <c r="H16">
-        <v>0.1621275717342741</v>
+        <v>0.1621219526723081</v>
       </c>
       <c r="I16">
-        <v>0.001811386324506614</v>
+        <v>0.002264575941472557</v>
       </c>
       <c r="J16">
-        <v>0.3633228435326146</v>
+        <v>0.319582249778577</v>
       </c>
       <c r="K16">
-        <v>0.3230173110221664</v>
+        <v>0.2597634077015947</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1260179738313543</v>
       </c>
       <c r="M16">
-        <v>1.515167186207577</v>
+        <v>0.07788892043921081</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2236581328996614</v>
+        <v>1.545113993325685</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2237481210237142</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.201509029362626</v>
+        <v>1.180963830747544</v>
       </c>
       <c r="C17">
-        <v>0.262845601069472</v>
+        <v>0.2922808826895391</v>
       </c>
       <c r="D17">
-        <v>0.09830224847070923</v>
+        <v>0.1101636911497792</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6351280944791853</v>
+        <v>0.5409763518152175</v>
       </c>
       <c r="G17">
-        <v>0.5062133745024653</v>
+        <v>0.4084482969090004</v>
       </c>
       <c r="H17">
-        <v>0.1242592872299895</v>
+        <v>0.1242502497574378</v>
       </c>
       <c r="I17">
-        <v>0.001716099205346211</v>
+        <v>0.002162922099514297</v>
       </c>
       <c r="J17">
-        <v>0.3858382139543153</v>
+        <v>0.3548775047096129</v>
       </c>
       <c r="K17">
-        <v>0.3511160144416046</v>
+        <v>0.2843859286363077</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1359651791786369</v>
       </c>
       <c r="M17">
-        <v>1.390695978755929</v>
+        <v>0.08564646262047404</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3768389214847474</v>
+        <v>1.42269780954561</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3770806854090551</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.065217706029642</v>
+        <v>1.042989355600099</v>
       </c>
       <c r="C18">
-        <v>0.2394616524465079</v>
+        <v>0.2720755275756375</v>
       </c>
       <c r="D18">
-        <v>0.0865003658866712</v>
+        <v>0.09782904606935716</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7192561153272763</v>
+        <v>0.6101931405420302</v>
       </c>
       <c r="G18">
-        <v>0.5960643805050267</v>
+        <v>0.4740303925747185</v>
       </c>
       <c r="H18">
-        <v>0.07133928987947513</v>
+        <v>0.07133760600910932</v>
       </c>
       <c r="I18">
-        <v>0.001457251337959597</v>
+        <v>0.001844026875666316</v>
       </c>
       <c r="J18">
-        <v>0.4344023498284741</v>
+        <v>0.400338451231562</v>
       </c>
       <c r="K18">
-        <v>0.411216496466082</v>
+        <v>0.3290045588718336</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1528541314887448</v>
       </c>
       <c r="M18">
-        <v>1.239541809304711</v>
+        <v>0.1018473739576038</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8082020874025915</v>
+        <v>1.274225903549109</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8087584853888146</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9247179604427913</v>
+        <v>0.9001657840710493</v>
       </c>
       <c r="C19">
-        <v>0.2182689307609849</v>
+        <v>0.254869774784467</v>
       </c>
       <c r="D19">
-        <v>0.07485868147755781</v>
+        <v>0.08608120406238129</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8399888054519948</v>
+        <v>0.7043465213085156</v>
       </c>
       <c r="G19">
-        <v>0.7249475524758111</v>
+        <v>0.5699372987130431</v>
       </c>
       <c r="H19">
-        <v>0.02640086569324751</v>
+        <v>0.0264183604095436</v>
       </c>
       <c r="I19">
-        <v>0.00159051062411919</v>
+        <v>0.00200498893352119</v>
       </c>
       <c r="J19">
-        <v>0.5015056025571027</v>
+        <v>0.453807087337367</v>
       </c>
       <c r="K19">
-        <v>0.4962878611617043</v>
+        <v>0.3889948057431596</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1749921708390261</v>
       </c>
       <c r="M19">
-        <v>1.087302480554939</v>
+        <v>0.1246514579228588</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.628292106538495</v>
+        <v>1.124571602967706</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.629242753324846</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.776544568747056</v>
+        <v>0.7473552035427247</v>
       </c>
       <c r="C20">
-        <v>0.1990742442973357</v>
+        <v>0.24210523798331</v>
       </c>
       <c r="D20">
-        <v>0.06238976739007995</v>
+        <v>0.0741998183706869</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.070881117401512</v>
+        <v>0.8730331430284934</v>
       </c>
       <c r="G20">
-        <v>0.9706742263417567</v>
+        <v>0.7584321917286445</v>
       </c>
       <c r="H20">
-        <v>0.003737865527783768</v>
+        <v>0.003768114989979754</v>
       </c>
       <c r="I20">
-        <v>0.001965742208377641</v>
+        <v>0.002410668609016398</v>
       </c>
       <c r="J20">
-        <v>0.6241492289069015</v>
+        <v>0.5267912002150865</v>
       </c>
       <c r="K20">
-        <v>0.6561092046821173</v>
+        <v>0.4935262895945698</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2106809521327158</v>
       </c>
       <c r="M20">
-        <v>0.9293989538901712</v>
+        <v>0.1682399465684803</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.517643189552956</v>
+        <v>0.9695636499817226</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.518456972287112</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8585224161919314</v>
+        <v>0.8254186577246401</v>
       </c>
       <c r="C21">
-        <v>0.2210764433815342</v>
+        <v>0.2649358770055272</v>
       </c>
       <c r="D21">
-        <v>0.06527631133991463</v>
+        <v>0.08321539299761582</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.181575102579998</v>
+        <v>0.905325374646992</v>
       </c>
       <c r="G21">
-        <v>1.072601235043109</v>
+        <v>0.8918532952530427</v>
       </c>
       <c r="H21">
-        <v>0.007122826299795992</v>
+        <v>0.007059697497138639</v>
       </c>
       <c r="I21">
-        <v>0.003164260843417033</v>
+        <v>0.003429491486254932</v>
       </c>
       <c r="J21">
-        <v>0.6672383657793262</v>
+        <v>0.4277504709384203</v>
       </c>
       <c r="K21">
-        <v>0.7067839062812524</v>
+        <v>0.4929844984480525</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2023199421188231</v>
       </c>
       <c r="M21">
-        <v>1.028090657060829</v>
+        <v>0.1788683367324246</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.152497224797088</v>
+        <v>1.066267466953207</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.151108991839664</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9211287406928932</v>
+        <v>0.8856904010518178</v>
       </c>
       <c r="C22">
-        <v>0.235693366652697</v>
+        <v>0.2792770508505242</v>
       </c>
       <c r="D22">
-        <v>0.06746081423455053</v>
+        <v>0.08985763679176983</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.249397826581117</v>
+        <v>0.9200065992013009</v>
       </c>
       <c r="G22">
-        <v>1.134007879358293</v>
+        <v>0.9831499810206878</v>
       </c>
       <c r="H22">
-        <v>0.009576077071954042</v>
+        <v>0.009424743064182145</v>
       </c>
       <c r="I22">
-        <v>0.004045945767356507</v>
+        <v>0.003996945978681055</v>
       </c>
       <c r="J22">
-        <v>0.6927964491081866</v>
+        <v>0.3646402235297757</v>
       </c>
       <c r="K22">
-        <v>0.7364868545544923</v>
+        <v>0.4887832950349633</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1957092277162822</v>
       </c>
       <c r="M22">
-        <v>1.100642727250602</v>
+        <v>0.1845282675942244</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.468023574042775</v>
+        <v>1.136907490549419</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.464975460556431</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.888645782414045</v>
+        <v>0.8539403741524438</v>
       </c>
       <c r="C23">
-        <v>0.2266707071697027</v>
+        <v>0.2711846818265968</v>
       </c>
       <c r="D23">
-        <v>0.06604848879732828</v>
+        <v>0.08552544030355591</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.217865198365573</v>
+        <v>0.9210531270849316</v>
       </c>
       <c r="G23">
-        <v>1.106418556799312</v>
+        <v>0.9307473610301145</v>
       </c>
       <c r="H23">
-        <v>0.008228307481709385</v>
+        <v>0.008129336621151562</v>
       </c>
       <c r="I23">
-        <v>0.003257588406881062</v>
+        <v>0.003331402505118319</v>
       </c>
       <c r="J23">
-        <v>0.6817838667590337</v>
+        <v>0.4109131602746743</v>
       </c>
       <c r="K23">
-        <v>0.7245552943439719</v>
+        <v>0.4967949536356855</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2011738797964071</v>
       </c>
       <c r="M23">
-        <v>1.060929466299598</v>
+        <v>0.1838706345484127</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.299431977396381</v>
+        <v>1.099058717753479</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.297348203734828</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7640813284282899</v>
+        <v>0.7346573026010503</v>
       </c>
       <c r="C24">
-        <v>0.1950150359905223</v>
+        <v>0.2380432287711187</v>
       </c>
       <c r="D24">
-        <v>0.06107149503442599</v>
+        <v>0.07263488724345279</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.092789205442884</v>
+        <v>0.8905313433981235</v>
       </c>
       <c r="G24">
-        <v>0.9952133414487747</v>
+        <v>0.7767767293376266</v>
       </c>
       <c r="H24">
-        <v>0.003999609914095315</v>
+        <v>0.004030163632847694</v>
       </c>
       <c r="I24">
-        <v>0.001503970532821697</v>
+        <v>0.001848178369405318</v>
       </c>
       <c r="J24">
-        <v>0.6367240006786545</v>
+        <v>0.5374476638777992</v>
       </c>
       <c r="K24">
-        <v>0.6737092675161023</v>
+        <v>0.5063855520627172</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2154612977836621</v>
       </c>
       <c r="M24">
-        <v>0.9126686177912973</v>
+        <v>0.1731097549418479</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.666252102569445</v>
+        <v>0.9529655067865974</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.667061676670826</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6295657173625102</v>
+        <v>0.6098301153898831</v>
       </c>
       <c r="C25">
-        <v>0.1618274969896021</v>
+        <v>0.1934371220240791</v>
       </c>
       <c r="D25">
-        <v>0.0556203672698139</v>
+        <v>0.06350740238666219</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9618851251004088</v>
+        <v>0.8025853822521043</v>
       </c>
       <c r="G25">
-        <v>0.8788211198662452</v>
+        <v>0.6960408345221936</v>
       </c>
       <c r="H25">
-        <v>0.001072061942899882</v>
+        <v>0.001129672753618305</v>
       </c>
       <c r="I25">
-        <v>0.001141255599257818</v>
+        <v>0.001299189415905566</v>
       </c>
       <c r="J25">
-        <v>0.5900723532233911</v>
+        <v>0.5207080174669159</v>
       </c>
       <c r="K25">
-        <v>0.6204224548934647</v>
+        <v>0.4843376614294073</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2194948179898297</v>
       </c>
       <c r="M25">
-        <v>0.7536039846319085</v>
+        <v>0.1504967284527581</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.992458978754144</v>
+        <v>0.7871928461861586</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>2.994947354339871</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
